--- a/usedData/accounts.xlsx
+++ b/usedData/accounts.xlsx
@@ -412,82 +412,82 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x3D8b1c12002c43320FD1a789C3a7BB7F61df8FC8</v>
+        <v>0xaf7Bc9f7395255dA34b394Da375e540724aFdb70</v>
       </c>
       <c r="B2" t="str">
-        <v>0x4c296b38115394031f53915736ff2ded355087fcc5f9f831aca6c478bc8f9aa3</v>
+        <v>0x08e0c7b75d3faa4e7b389c1810abf74155039b038fc976a351d78ab3c0f016af</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xeDF2C8Ff68C008caa0054391f23A8022815a5f5d</v>
+        <v>0x7c11fB3794043eB66CF781AA948F1CE83810bf06</v>
       </c>
       <c r="B3" t="str">
-        <v>0xd8d6381a7ca389f4591cd6412f3320adcd6c38d45ff5b90896b9849094e74243</v>
+        <v>0xff349e75dfd8f5f9bd3682ec5af5f42083fc179a332217181cf0540a7c10c65c</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x6023b82AC66B565b8e4Ca2A67d008Fc0d65Ccc4A</v>
+        <v>0xcfAdF4D06e4996f3Eb266a0D756696c767f71525</v>
       </c>
       <c r="B4" t="str">
-        <v>0x4d4432b1f9b75ba75952f134db76e4c100bc3d955bc0c947d56c850f2f8343cd</v>
+        <v>0x355ce2a3901a9a2127b7d77285959ec7efabf52360829407ec8ab2595ea55c0f</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x21a3E19d5187ec0cCF3a24e0560c41F8493536D1</v>
+        <v>0xdC29ad46683639aB29E0C96AdF4708EafD743917</v>
       </c>
       <c r="B5" t="str">
-        <v>0xb175e31c970cf78dab5e188dc90ed1b6656a0835a8f614be8d718f23ceb8ce81</v>
+        <v>0x7e53b6531e9f037a704af68bcab18826ec4094365c2316e592dc4250f2dd806d</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x367FfCa7b3dbb608717b52Bb8cF5BFD1fe81a687</v>
+        <v>0x14e87943485c2F9E8ce3371de3162523d1F13513</v>
       </c>
       <c r="B6" t="str">
-        <v>0xe8bb71e065b99bb8e32d60ff9876be83c04653752563c55cbca8ffcd3435c06a</v>
+        <v>0x87dc6b5dca15b51b5db468dc3bf77f4cc5282b24a7e0fe9919e806e82fd732a1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x491174eb28d8b90fcF234960be9A8DA90de9061D</v>
+        <v>0x9b29194CB95F753c507cc462698695AdAB45B72C</v>
       </c>
       <c r="B7" t="str">
-        <v>0x1de8ffa7dbbbe72df00e352cd9ccc13a39d5c32c2023bcefe92197514a5652b6</v>
+        <v>0x50d4b15b73715996169abd7cc23c05bcfb9b917d651c23e1b0617b9bf1016412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xB5e019d71c06Bd6151620f0a5C91fA928de5281B</v>
+        <v>0x9Ea04CEC17409684d8D631EfA238659c6B17023F</v>
       </c>
       <c r="B8" t="str">
-        <v>0x9caccf917625f1988fc796886c927cbc359bc55e06dad26358f6f8a990018f53</v>
+        <v>0x3898cfbac72a65eed8b0000e4c5383352998dbdb7ea68501e4f2f357220710dd</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xd32e0aa2a04422B481CC339c38916Df3A2a7F44F</v>
+        <v>0x0Dd6D78F5f5553a1bb5D3CC53385B6eF35996460</v>
       </c>
       <c r="B9" t="str">
-        <v>0xe9f852dcacc1d713b3f63dbb03b2f86c18448792fd522f542d62451948f7a2b1</v>
+        <v>0x2f3eb657548b2e29f93b85392fc003c8a11b145af29b078afce21815dbe0468e</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x37268EE0112b279aE878Be065Cc0039A1d2b8ce7</v>
+        <v>0x87Eb1782139812ccfd900776D573899479f1992D</v>
       </c>
       <c r="B10" t="str">
-        <v>0xecaba398467b961c4c066d66bfa584a221b3faa1d68e311e751143d0a4b7bddf</v>
+        <v>0x325d08f2bde380b1b353b7947b9baaa6ceb833f595fd4f9a76ea67e0d6c8891a</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x9B51034E0ffF5CfC4b4067446d4e829033A0FB63</v>
+        <v>0xBeC1b78399c74C3B8ca13a41a9B43580f801178C</v>
       </c>
       <c r="B11" t="str">
-        <v>0xc3374a5f24296b2eec14f136dee9e38653c3185cf05143e13aabea69f711f073</v>
+        <v>0x16b3b854931a74f2604a343a26560a22e77d9f943954c3080c9a8e47ab382406</v>
       </c>
     </row>
   </sheetData>

--- a/usedData/accounts.xlsx
+++ b/usedData/accounts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,87 +412,807 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xaf7Bc9f7395255dA34b394Da375e540724aFdb70</v>
+        <v>0xeB36C04440371ad32dC9D03b50580a2603711c1B</v>
       </c>
       <c r="B2" t="str">
-        <v>0x08e0c7b75d3faa4e7b389c1810abf74155039b038fc976a351d78ab3c0f016af</v>
+        <v>0x3333a1d4c55b05ca5d10ed252198bba9f012863ca8b96aac8cc832d7b57a52c9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x7c11fB3794043eB66CF781AA948F1CE83810bf06</v>
+        <v>0x17eE90e087db3d87Ba6EaF06be9A28446E4Ec0be</v>
       </c>
       <c r="B3" t="str">
-        <v>0xff349e75dfd8f5f9bd3682ec5af5f42083fc179a332217181cf0540a7c10c65c</v>
+        <v>0x8f113d346dad7517fde2e0867c140abac04dfc94fbcfd0b2e853f4f43eb5316f</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xcfAdF4D06e4996f3Eb266a0D756696c767f71525</v>
+        <v>0xc56ce77138A5afC8EC830CA9d7491F23bA8DE0b2</v>
       </c>
       <c r="B4" t="str">
-        <v>0x355ce2a3901a9a2127b7d77285959ec7efabf52360829407ec8ab2595ea55c0f</v>
+        <v>0x2b0bca01e14ca0b9c05c3ee2db6e1e9dfadd8bc8f49a6851da309a78f5375313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xdC29ad46683639aB29E0C96AdF4708EafD743917</v>
+        <v>0x40E5c5BE8330f834F1b964D978f27E9625ebe0dB</v>
       </c>
       <c r="B5" t="str">
-        <v>0x7e53b6531e9f037a704af68bcab18826ec4094365c2316e592dc4250f2dd806d</v>
+        <v>0x3ad365ae14fddbfad76bde5a503fe4b709d6f6df9b586da460576e2a6f9737d3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x14e87943485c2F9E8ce3371de3162523d1F13513</v>
+        <v>0xd7455869da881e8BED13fb571651Aa22974D0e55</v>
       </c>
       <c r="B6" t="str">
-        <v>0x87dc6b5dca15b51b5db468dc3bf77f4cc5282b24a7e0fe9919e806e82fd732a1</v>
+        <v>0xb0cbcaee46f517990f173e1dcea614aa1295c1639b9a20f29ac13182c9e8fe89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x9b29194CB95F753c507cc462698695AdAB45B72C</v>
+        <v>0x25F998c9AC86CE46822F7DE8F200bEc3e25d3D28</v>
       </c>
       <c r="B7" t="str">
-        <v>0x50d4b15b73715996169abd7cc23c05bcfb9b917d651c23e1b0617b9bf1016412</v>
+        <v>0xea4c1ed729900d3d7b866dd7bd13eebdf82f5078fbbd88118794b6630a31cc4c</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x9Ea04CEC17409684d8D631EfA238659c6B17023F</v>
+        <v>0xF53F497953d620c0b1182D11272DF5a735Cb96F3</v>
       </c>
       <c r="B8" t="str">
-        <v>0x3898cfbac72a65eed8b0000e4c5383352998dbdb7ea68501e4f2f357220710dd</v>
+        <v>0x4e35752821846e050548ed4903db7bb2a63ae4cfb2a9157421b5660fc85e23c7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x0Dd6D78F5f5553a1bb5D3CC53385B6eF35996460</v>
+        <v>0xBe2cd78E9282669f30b184836b13e112d0DC28f3</v>
       </c>
       <c r="B9" t="str">
-        <v>0x2f3eb657548b2e29f93b85392fc003c8a11b145af29b078afce21815dbe0468e</v>
+        <v>0x4986e2dc1cf61ee01692b90223d2a179e5df69b49752b5c21df4bcf792328d64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x87Eb1782139812ccfd900776D573899479f1992D</v>
+        <v>0x8fF5D7EE2AE84c649A88E467786158b6ced2ccdF</v>
       </c>
       <c r="B10" t="str">
-        <v>0x325d08f2bde380b1b353b7947b9baaa6ceb833f595fd4f9a76ea67e0d6c8891a</v>
+        <v>0xb8adc221bae9c0a91e7e12013aea87949a305c9f369632c19ff41832748dff12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0xBeC1b78399c74C3B8ca13a41a9B43580f801178C</v>
+        <v>0x0aE58B4CF549E02158B90B5A4f2266B43B93423B</v>
       </c>
       <c r="B11" t="str">
-        <v>0x16b3b854931a74f2604a343a26560a22e77d9f943954c3080c9a8e47ab382406</v>
+        <v>0x6e1d641a124edf0f84952e1593d5044984461cd4d46ab2c142b951765cd0786e</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xF88a258cCF9739D9a6756808B2369BD27d65F425</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0x33fe4b9a2b71b1bca10215c84387f767aa764599b8474b5505577d58d390ac54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0xE3ad35525F481d4ECcBdF7829e96B3b5CFa4e894</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0x410706279ace3adf3ec4f40a2f3734f6cd988c89fc616f20f1ae04aa49076911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x169E533AE1291a49e4364B1Fc7eCfEF5aEe49F29</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0xc42dc21c7e5903a11c9ae9817d9a58e65dd740cc9c671edfad2d2ef17ea32b37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x95329141d442c6622cA34ba877d63f05E5687A2A</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0x193db2e7803d0bb8cda7a9b6ab1a0ae000eefcc4c1c75377c98400d27f91f24c</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xc1650F5a520C8C9FaC98Ab2993fd12c1AB5d6014</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0xcfa5f1ae6cc707c5af263a084ea09e2f6013d7838fd14d468ed06a9c8bb5a7d1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xDBF615775287c0D2b63f40f5CF46213b50666C21</v>
+      </c>
+      <c r="B17" t="str">
+        <v>0xb5912a92d885b5485f0ab01e964a86ce05d5f21a2d818e54a6ec374f6b1f8c6e</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x3304540fb7613c913Bf7fD7aa0b7f74A115160C1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0x85f0876d48e659660d2fa636f6ba5d01b1a524774416e258ded154e4f8929b9e</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x995e5D7693D55f719492bba5eEda52fd5BFe4623</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0x94b18db127735636c26a5c2a52d92d30bf7917b2c7170c4c9517796f6f17964c</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x09068aB77BCaD3b08AFF04AA7d9c0395aFB1daC9</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0xf1b7182565880b943712008f1f01bd56444851955b82e6f56f463e2cdbe18313</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0x101242523809CbA8E6C89753a60aF4745FeB2863</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0xffa1ef768d971c95eda6dd71253996fa6fd584e207e803bd1fb3eed235bba210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x4a686e2C427ef785ce1C0f750CB28d459f677356</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0x3a332ceee2e8ba3d478ed9495b7c1533d49396d8c51f38ea8291f03077117f17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xC48CdF7D59ea4660d66543a5B91Beb6Da59cf315</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0xc83518b548e9aeb20a962b03ca741f0c5dba8647ae4aa5730fa66cfb70046a4d</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0x0043911dA2284cEcD5dc6520BD9770e734456a5d</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0xdf499a775db303844bc09dcbddf0bcaed3015ef59ed6b362ac85d1fb34b52f81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x66014db8a447D0f32F35CbB60e3444bcb82D7872</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0x2d9ba4ca1d2bfa725dacfff0d1865650d9c7a0dd2d67884225cbfb266e2202cd</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x061e33ca1863c163A58638cF992dea82F517Ca9a</v>
+      </c>
+      <c r="B26" t="str">
+        <v>0x122debdc04aa8c4d72a32e62dfcbcf48854a763af669935488ae28933509f60a</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xA8AF3ee5ec64Ce30f3249CdfbaE95f607F76415E</v>
+      </c>
+      <c r="B27" t="str">
+        <v>0x4fa7eaf80bcfcbf65cbb1b50d7ad550f5049aa6f5e3cef20c1aaabaff96e7b5c</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x77C7bfC82a0D6899aE48761c32AA85E49F8dEc4d</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0xf2ee0b5fa03fd2f544166ca07fdc6cc79bdeb0e95ede723a1ec7c41397dfa7b3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x56b4903c02cE7e475dFF72F51749F21599831391</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0xc196798c1d56e99241019b6fa82d39b5f6a548a115ed37038fd97f3a3843600b</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x4C227642E1c1B49CDE2fa9b455b1437737daD142</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0x03cfb21d3deb520f1d8f2dfa8e6698f154c82b29fd831230d4559b0ebb7b5dee</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xB76bF1cC4e1fC6AeDDd5d236AC84D6CdD43DFCA2</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0x8a2cc481c4c2603dacc097aa89630014484704e6d6d7ce0ca4387bf3344d6f32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xDF7FE31aaF34ABe2eF239b8Aa302Adc080a99210</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0x17cabd0167a617b2222cde0b4667a343fdc4b7b1b25cf96a720683fa6775695c</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x2a9C346a2c4D28eF8e046E602530127F4993a473</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0x12851bad09d722a62b4b6f3680b4e84618829b4b6ac8015112532352779d9ac3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x4D3dF0aFcC4eF60b18f76F3F49AD2eda81584341</v>
+      </c>
+      <c r="B34" t="str">
+        <v>0x41ba2d27357708f9644569fd9b6dd3bf5aac6d0bd587c57dc7297899fb3090ab</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x0bAE61ED98E74b9f0dA8a98eeB483C9faD648457</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0x06545c395a92dbf10987772278ee130d143a0296431cc3d067d8b65fb0601104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0xb0010FDf179Dce065901823926E34D16AfB6E280</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0x20eaf1b52a01bcc81563092c31a161e7b26d62ab24917ebcc5287ec689f77c0e</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0x4011E7e2D22128549B0C90C66C52AB9c7FB1769A</v>
+      </c>
+      <c r="B37" t="str">
+        <v>0xf145a6ccac673a9e8a9d502b215f10b51b4e77499a53d1c28b31de4ce0b8f4b5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x368fCe22B4488c379dDFF56bA8956a78B34fBC10</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0x40ee2872cd029c3febc8da4fedc06794a78f0d8f135c213787fd7e9ea73111c0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xD86158f53F7b598323C68b8445fD3e0A09CEB673</v>
+      </c>
+      <c r="B39" t="str">
+        <v>0x932edbfcb3db5c35d251d7ea851d08ffb4ae2f359f3be788190135f690fa24d1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0xD4E8274Ab1Bc22880F7eb4b95f3964BfCb54723e</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0xe8ff99cad5958a6fc8813d6b335b638a8a41dcf8b8ea8821eb2bca1b0ca06d47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xa28ffCC852CB793322BdA293D66eF79aee26811B</v>
+      </c>
+      <c r="B41" t="str">
+        <v>0x51ce38a3973e25a20a7658aab80a3834493abed9799cc48cad409cbc63131817</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xbd866e30F8fD875B5b087a9A24F8F99b911217C0</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0xab24edf094e3d3fc987a2b43e45d20f2c3b5ece047b2ec9c7652d5f81a9d238b</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0xcaa2aabd5C1b5b032C5A262a2025d6c88192eD8C</v>
+      </c>
+      <c r="B43" t="str">
+        <v>0x3c9394967cd0994c868471e25892a2b744fd599968325d6a5c3a3b49acd23224</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0x9eCDA2a8fEaB96ea57442F420358FDCa8500f1CC</v>
+      </c>
+      <c r="B44" t="str">
+        <v>0x49fb069e32594dcb559e9cce13922d3d11a4e74c86ba558c823038271088351f</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x8510a3f7af6c517B3D46ff649163045B9f8f88F5</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0x39a41f0cafa6148b97c075ff641035263855f4fceabd04e5a74e99d47c63b9d4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x4E086b25F327fBd810D32E410Da6ab3750fA5c3E</v>
+      </c>
+      <c r="B46" t="str">
+        <v>0xe47ddd5b7cfa8426fbb1dc33cbc043666138cd5d13b7c862521585b5dc59182c</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xB32e22b5E09e24B552b33f723458ADE7B416319d</v>
+      </c>
+      <c r="B47" t="str">
+        <v>0x6e62526ce4919cb68b7658c7fe21c740cea970c4b9c3cfc0c2d4155c21f3dbdc</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xAfc9653D38D34AF30fe9736F97Ce12BbdaafcbC8</v>
+      </c>
+      <c r="B48" t="str">
+        <v>0xe32ce93f861cf20d4d425777a6a9ef7e075d35a16d2e44ce4ee1f1d7d37ea541</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x8335033Ac9BF5aaD116904434293dB148af04Ba0</v>
+      </c>
+      <c r="B49" t="str">
+        <v>0x8084ee6e7ce255b1bf634a05d1fb9149a13d96d1ade4ffe72b41c29cd996eab4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xCB81Bd705FfE5D91aCB98D64c4667A348732b0c2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>0x640062007842aa23d4f8f1965e920781b61779de7ce13afe95863618166145dd</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0xA38F1490e9f55DdB6C308B67B597bf995CDF2E77</v>
+      </c>
+      <c r="B51" t="str">
+        <v>0x899523db4f8747cca40765812723001c15812735771f918f71919da4364beaa7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x6B4FBEE05A1CF0B6d74Fa683B6B039c72699058E</v>
+      </c>
+      <c r="B52" t="str">
+        <v>0x4222126c5a1b370613982d5b4e05fa20245b91c8706f50e5cb173f0fa895b14c</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x546E1BfB8E9B193C8970f9A2f82e15473e0c52b2</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0x96e5b4f087baeeab96cdc84740a2e145cfe87a712ebb29bba533f9e82fb1bc89</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x22f03ae99488E801aaF797BECECFDA390571884D</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0xf42e635156139f76c569902244ab0977cc76e96fc1c4faaa125ad29b6ed8a992</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x14b6bA81bB72eb635f655b4baAFC09350daAb188</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0x6f65906f87568a8343eb50b36121bc692729f94caa382cddc7c3028df3e11f20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x5388f6482e1b2595ae6435DA5AF130793770bBe3</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0xc31b67fb1f1bcbbaea3ce76635ba7e121518dccc7e67591f08a6928f96f5083e</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x4B72FD457bc5B115ff3CE209004Be1e8C0105c6f</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0x15d2aaf2af1ef4e10d3318a9ba3008a2e1ccd6eb0141f7a3e33c9eb767df5947</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x2490d763C14dB6bF4aAeF03fDc8AacC241c67Ef1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0xbffdd9eb0159e4e748d2689fb336f8be2e0eb05ed543d246bb4359739496b33b</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xc13cF0B71f8478BaC66120359a0295fb7553Cd8a</v>
+      </c>
+      <c r="B59" t="str">
+        <v>0x729e1f7c2f1ea53c61cebcface690d88fc8c4858490ff84c8db7ef1419bf8787</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x871E6F501BA38d78458f6fb17dd1984eACbE7A00</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0x24c6ee551e2827b13dec61f78a3d01903b635878700e0ea0e30a81fd3ea4719d</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x0bf58a640a4365c0423C53c33481a1c5fc1Fe12E</v>
+      </c>
+      <c r="B61" t="str">
+        <v>0x6108ded0be27c7fb0cff4770b498e585fd23e8a2e3707c6515fc2e0599f99e20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0xcb2246A7eb5C07465BB3e25CA84c20FC68AB4Fbc</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0xc2b2b8a27cb9cde73f966b3e9c1c06a1718bf8682b241a9ada330a7602837845</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x55582D6838f2f8E7b4F0190989564ACc4ce193b3</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0x018ff362d550495ceab57c0345abeae5066c0842f07b832967f216ab0329b4d7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0xa013Bbd83E80C6a74a5711e59BEc90be9A1bd615</v>
+      </c>
+      <c r="B64" t="str">
+        <v>0xd6cc5d4a11487855731dac295de03eb0cee7086f234fe83d31d4f546c936155b</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x1028E785275909312B3145636E5a3595a6C6314D</v>
+      </c>
+      <c r="B65" t="str">
+        <v>0x059c74fe9d2993a57f33813e5d03d716a68cc12bc347dcd6ca7c87c0e703cb16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0x081E82d0067F7a465d57A747Be68F85A4D5821fb</v>
+      </c>
+      <c r="B66" t="str">
+        <v>0x9f07d2cd8104fcb3a3a0754d6a1ffe5ce04e4fef2340740dea9f7b7004f2f729</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xfCf188335f12a4b89dd741A59355A2724CEdB305</v>
+      </c>
+      <c r="B67" t="str">
+        <v>0x7eefcd3148dc976471edd0512add3c0a092fd88b429965f40d3e3e803c83aec9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xDcd7b7e871231cc732f6d4E261d6136637Abe067</v>
+      </c>
+      <c r="B68" t="str">
+        <v>0x7ca8dd7bffc36da21e24a816714311da9fd4b8d1f24624d675fc8f3f7ac20b11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xBda69672852FE9Aa7FA785C94Dcee15828D1073B</v>
+      </c>
+      <c r="B69" t="str">
+        <v>0x776f3aeab4c9dd962c1c6a87f3559a9e5207e4d6a156e434f2eda944e3fe6817</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x0e0B0787E3BcaB9bD6a7f85576F912d91ED45d83</v>
+      </c>
+      <c r="B70" t="str">
+        <v>0x579bd938f0ca02d99c8d29848c61652a015078d344239ad2221393775f53ba79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x86079b7c0126d4b7eEceBa8deEa86b1B1edDEF68</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0x0e74ec572350a161afa5fa14c785724c581593795244285669fe8c22814789c1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x4C21d410F370d09AE2B8E6A0f0502B08517193f2</v>
+      </c>
+      <c r="B72" t="str">
+        <v>0x881596697a8a02b2fec84b6aa354c77f02b49c833a648a645ba896be337e2b0d</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0x0C94aF6ec23d7D60A5D8Ed7cdA9C913332885CE2</v>
+      </c>
+      <c r="B73" t="str">
+        <v>0x7918a63b5c79551f8681a615ebc5c60a3519dff405c7f867e6eb649eb6a1074a</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x74dEa92dF340Bc2486469237ADCe919dA5DBF4B5</v>
+      </c>
+      <c r="B74" t="str">
+        <v>0xa2700ccfd3e512b659f678d7e4da6272f8e93e0cd0e15b592ece9afabcba5919</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x500a9366087271399cd595675e64197faa0A06A3</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0xfcd6cf6158f0ec121095ec07e57b73777eee0703b1d456a5effd956ad768bbcf</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x7B66590C20B175836e6a0CeE0D982cb4349bD627</v>
+      </c>
+      <c r="B76" t="str">
+        <v>0xfbf577559e0f9d1d09535d17ab03969dd0fc095d2f4f873bac51a354cf1e4516</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x7e0e25c2720234E990a2bEF23ffe6400694d6ec6</v>
+      </c>
+      <c r="B77" t="str">
+        <v>0x196e8248e8b37c5456b1168941b1e216a3f17a3920bc4879215598b82047e24a</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xbC0b8650819dfb9923Cb81b6F3d1C40c1DE5e3aE</v>
+      </c>
+      <c r="B78" t="str">
+        <v>0xa6bdc698cabd6c24db8744fa99d1f772f993ad8ccf23e8fac99db57b3b9c114f</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xd2C7d629cf21CB21F007b08B17552aC966Ec301B</v>
+      </c>
+      <c r="B79" t="str">
+        <v>0xc42a46ea53ddf31d14ad0abd47ed7dd77ffcf0233e10e6bdf78f2aacefe2b94b</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x9Fd5c5AEceBE7061cCB5469a89BAF7F9da8805d4</v>
+      </c>
+      <c r="B80" t="str">
+        <v>0x6af11d36bd54a737d6d19627efdbdb182140c879e8703a264424adb3cdc37bf4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x447A480fa600532D4a6e4ABec8B3D1A74855e9eb</v>
+      </c>
+      <c r="B81" t="str">
+        <v>0x16bd2a7f9400a923ea531f38f5a0ecadedf5eeda4b2bff6c0ba6e34904cb0cf3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x37604EC1812e989F57807795704459A764F8c391</v>
+      </c>
+      <c r="B82" t="str">
+        <v>0x771c7816fbe689fa807ad283fc030d0e5e1cc7cfd575554aa2c28120774f9255</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0xFab059bF7B3c41b510623740E838A905644e5F38</v>
+      </c>
+      <c r="B83" t="str">
+        <v>0x9b329fd078c05ac77d72aa0cd710b0d17b19dd2ea5e657bfddf8e6fe10bea0e1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xdB90a8C901DdC7A8749d2474E75591CC2EF80533</v>
+      </c>
+      <c r="B84" t="str">
+        <v>0xfaaace18da70c9b29a2af6fd1afb305d9d1c28b959d57bdee93b8d2b98d95c77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x38560966B45a84d72d14d2f8f1aF224245b70cb5</v>
+      </c>
+      <c r="B85" t="str">
+        <v>0x74a313f5e37f44f4d86426a3f57a43ef0edcab314aa9d818c121ef4a63837caa</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x88De2261d3e6d51BdC86e936F9532E82b530e99A</v>
+      </c>
+      <c r="B86" t="str">
+        <v>0x8a16b62213252fc619ad0adb17e2288e21ee41852d68b0273d9a670d9ba301bf</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x55200EA1afAd1c237DFC499771EbB852C15ef1B5</v>
+      </c>
+      <c r="B87" t="str">
+        <v>0x25cff1732245ced2909ac9d6b7633526db8ac4310a2940f02c8ac77da1679934</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x7B46F243E7d42E22509f6E1CF27d0bC78F4518A6</v>
+      </c>
+      <c r="B88" t="str">
+        <v>0x15a3d82e1e7e0fc98644264e791b927273487979fbcc83cbc6d056607e6ea3ed</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x953b75a4D5Bf4619385b04D63Dcb5B826bce3BbE</v>
+      </c>
+      <c r="B89" t="str">
+        <v>0x3b4efdc64c65b3df2bb3059f27cbc86ede3dd35fbb1c0c6aeb5bc9b80dc06fe0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x4773b55Dc7F2273d079C124D3A4dBe52cF298492</v>
+      </c>
+      <c r="B90" t="str">
+        <v>0x88a91db7b61e7938ca7708525c4ce13d34ff94cd9908184b44643d86b28363f7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0x1066F6e9a096CAf3892f7413accB7e365cF549C2</v>
+      </c>
+      <c r="B91" t="str">
+        <v>0x1fb66c0477c40fb9737a55aadf8b391c8c85dc558a07a562dcb6acab13c64529</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x6734Dd0CCBF17B9ed6241e2Bf9A4816297BfC933</v>
+      </c>
+      <c r="B92" t="str">
+        <v>0xea4ade9357bdd598e2446acb3ef0dd60bc25d22e25df45e7ef94ba61dc93764d</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x0aF458D83A0bfeD409a39BdE58E529e6009f80aA</v>
+      </c>
+      <c r="B93" t="str">
+        <v>0xcef77ac0e19fac0b3b641c26dec3d7e400c42afc4cb6cb783535323df90b8a0c</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x2F0Dcf923CdB2D1a41DBC7bE9BC9b7d89478d560</v>
+      </c>
+      <c r="B94" t="str">
+        <v>0x5c82616435fb7ab3bae359c4f6b3b2e1c64f4cc854f447fb72684ab2f667df0d</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x0Df9db87F174f747b92aF926d6C2E430292739Fc</v>
+      </c>
+      <c r="B95" t="str">
+        <v>0x152d5db3a46ce9fbcde89e2683c058fed622b92606cfc74d03b67a386835f07d</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x9197779C8B39ea3730993B9845c8D739FC282e9e</v>
+      </c>
+      <c r="B96" t="str">
+        <v>0xeb0080aceb698188465cc1a9e2d20e46b921ee4171c3ec2543a2a1fe7a65c6ed</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x61a074D16b339F4CF9acbeC09B5E38538AA5E078</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0x7b93a02d5c518293ca5b7625a4d8f56c1eebcdb910cf42823a4bf5c1961600c0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xdacb0Fd4765E29eD7b057394Bc7c3D7F2a8987aC</v>
+      </c>
+      <c r="B98" t="str">
+        <v>0x27f0a91221daefb08fd18f744b229b4ce40383a0d6ff2c9658ce1f64b7f4d390</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x6D18C744823102C9767018582CF275A2CFf9aB2E</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0x8e153c784e0e8579dcd54ce091c3cd06f0d5f893f6729ee8da7ac8b702789940</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x69bAD9Db2fD21A3A429EfAE99393318C7b2bA815</v>
+      </c>
+      <c r="B100" t="str">
+        <v>0x13f96ba06e6b66c4817892505e0286f02eb16ae6c082ad9b96e1ff5406629fd0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0xab17fEa5A7e77ca83C7d3985B1909e7F6FbD1C5d</v>
+      </c>
+      <c r="B101" t="str">
+        <v>0x5d0f8b48a4e6123a34e235fd20656b77fe9377443d25e08c994af5728087763b</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B101"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/usedData/accounts.xlsx
+++ b/usedData/accounts.xlsx
@@ -412,802 +412,802 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xeB36C04440371ad32dC9D03b50580a2603711c1B</v>
+        <v>0xdf424D07D99c6029BD52d604B3A3a0C35a85968D</v>
       </c>
       <c r="B2" t="str">
-        <v>0x3333a1d4c55b05ca5d10ed252198bba9f012863ca8b96aac8cc832d7b57a52c9</v>
+        <v>0x1ceb2f37af002af562887b24ed0b9919e08d63aaa0ff29eae71f583938b3d7a2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x17eE90e087db3d87Ba6EaF06be9A28446E4Ec0be</v>
+        <v>0xAD5338B26F1f5D0d1Fb7B5Dd43415E6A96267E53</v>
       </c>
       <c r="B3" t="str">
-        <v>0x8f113d346dad7517fde2e0867c140abac04dfc94fbcfd0b2e853f4f43eb5316f</v>
+        <v>0x6a4393ab3901406d94b6ca2d3c508998bb6d027486e65f6f37976981a9131878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xc56ce77138A5afC8EC830CA9d7491F23bA8DE0b2</v>
+        <v>0xa5Ad429E1aCb2a0e10A722e847CB3C216992A543</v>
       </c>
       <c r="B4" t="str">
-        <v>0x2b0bca01e14ca0b9c05c3ee2db6e1e9dfadd8bc8f49a6851da309a78f5375313</v>
+        <v>0x925b766afff5d80b55de3fe89399048bbeb0a49d86887355a687ee9652235a70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x40E5c5BE8330f834F1b964D978f27E9625ebe0dB</v>
+        <v>0x8aB77DBDf7fECCBa0dCE383C547BC4297670C7Ed</v>
       </c>
       <c r="B5" t="str">
-        <v>0x3ad365ae14fddbfad76bde5a503fe4b709d6f6df9b586da460576e2a6f9737d3</v>
+        <v>0x84e8ead9d39f4d0bddcc432f234d737e59be185a92b44b229225f2cf5cde1389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xd7455869da881e8BED13fb571651Aa22974D0e55</v>
+        <v>0x7aC80df174302b63039356FE7e4a5cc881b84b6C</v>
       </c>
       <c r="B6" t="str">
-        <v>0xb0cbcaee46f517990f173e1dcea614aa1295c1639b9a20f29ac13182c9e8fe89</v>
+        <v>0x052557f5c655a43b45f026d9c7208a232bbbe0ceb8cda46457b84f2dc9feaa26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x25F998c9AC86CE46822F7DE8F200bEc3e25d3D28</v>
+        <v>0xF9F75Fec0601522DdD17ea86138eb686Bae5A4fa</v>
       </c>
       <c r="B7" t="str">
-        <v>0xea4c1ed729900d3d7b866dd7bd13eebdf82f5078fbbd88118794b6630a31cc4c</v>
+        <v>0x512e60b504e4bede2e5fbd67cb0358254e1813e8af8805a8d32209884a62a2f2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xF53F497953d620c0b1182D11272DF5a735Cb96F3</v>
+        <v>0x39eD4CAb5c160409Fad5aB4B453696Cb33fF486C</v>
       </c>
       <c r="B8" t="str">
-        <v>0x4e35752821846e050548ed4903db7bb2a63ae4cfb2a9157421b5660fc85e23c7</v>
+        <v>0x5c073152dfe8d38b18bae8efc281af43d27ec16f8b0f95de04faa93a46a4c5ea</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xBe2cd78E9282669f30b184836b13e112d0DC28f3</v>
+        <v>0x6401E395aCaB2499140e2CD60822e3C391ef6684</v>
       </c>
       <c r="B9" t="str">
-        <v>0x4986e2dc1cf61ee01692b90223d2a179e5df69b49752b5c21df4bcf792328d64</v>
+        <v>0x8c0b1a81fc2c33abe6e343c12787db211e49195dcce6d37f5778d83100f9ad50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x8fF5D7EE2AE84c649A88E467786158b6ced2ccdF</v>
+        <v>0x38d0a8547B6fbe69264F70E48D0014A46c51EE4e</v>
       </c>
       <c r="B10" t="str">
-        <v>0xb8adc221bae9c0a91e7e12013aea87949a305c9f369632c19ff41832748dff12</v>
+        <v>0x80537f362c8d7c3a56cf190b75a40b34efa6218f17ed50e58ece0d6dc480a3b0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x0aE58B4CF549E02158B90B5A4f2266B43B93423B</v>
+        <v>0x031fCB21fE999bC9d8498B23edccffA47CB8CeF9</v>
       </c>
       <c r="B11" t="str">
-        <v>0x6e1d641a124edf0f84952e1593d5044984461cd4d46ab2c142b951765cd0786e</v>
+        <v>0x25b6bafa501bc285382818748f51932e4ffd21b6cebd20534cc918d28f9fa5d0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xF88a258cCF9739D9a6756808B2369BD27d65F425</v>
+        <v>0x98694F49Bf93EC460a917749d4aa7E0a4a72fD49</v>
       </c>
       <c r="B12" t="str">
-        <v>0x33fe4b9a2b71b1bca10215c84387f767aa764599b8474b5505577d58d390ac54</v>
+        <v>0x66043f03d8fd950bbbc408e5ac9f75d46f69d2f62fc7d240f79a622ea9dd3cfb</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xE3ad35525F481d4ECcBdF7829e96B3b5CFa4e894</v>
+        <v>0x87e54920539A72475F26322A77c594A5870F6E3d</v>
       </c>
       <c r="B13" t="str">
-        <v>0x410706279ace3adf3ec4f40a2f3734f6cd988c89fc616f20f1ae04aa49076911</v>
+        <v>0x84e872dde3ee17cae1b8509392c66d7ac9a33c7e567f13836aeeeb6b36073501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x169E533AE1291a49e4364B1Fc7eCfEF5aEe49F29</v>
+        <v>0xFf8b4b32A8e7AFFFf120935eED5f036dEe3DBA8f</v>
       </c>
       <c r="B14" t="str">
-        <v>0xc42dc21c7e5903a11c9ae9817d9a58e65dd740cc9c671edfad2d2ef17ea32b37</v>
+        <v>0x30f6fc6e2986fbc2e518f2f9191851ed32d96d94259ca921384e4da128167a0f</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x95329141d442c6622cA34ba877d63f05E5687A2A</v>
+        <v>0xf067b92559CC72863C7aB45480708E03228b4E18</v>
       </c>
       <c r="B15" t="str">
-        <v>0x193db2e7803d0bb8cda7a9b6ab1a0ae000eefcc4c1c75377c98400d27f91f24c</v>
+        <v>0xa792396ac49b14f1bdc52fc3940f82d124787cfa1993de37109fac145745067d</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0xc1650F5a520C8C9FaC98Ab2993fd12c1AB5d6014</v>
+        <v>0x972eEF4CdC963a8bb1ED8CE0F3c7075798a48078</v>
       </c>
       <c r="B16" t="str">
-        <v>0xcfa5f1ae6cc707c5af263a084ea09e2f6013d7838fd14d468ed06a9c8bb5a7d1</v>
+        <v>0xca0ab5c31a28638a73f32e06606d1c61eaf2427062403a75ce9cf0ecccf4b2cb</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xDBF615775287c0D2b63f40f5CF46213b50666C21</v>
+        <v>0x0136CB93d30d82fc8F794300c40b4F8A47944190</v>
       </c>
       <c r="B17" t="str">
-        <v>0xb5912a92d885b5485f0ab01e964a86ce05d5f21a2d818e54a6ec374f6b1f8c6e</v>
+        <v>0x5e5d11aff534dea771b6aeee3d373aba32bee1be7cad08332622d45486a1f804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0x3304540fb7613c913Bf7fD7aa0b7f74A115160C1</v>
+        <v>0xe51e5a20a34E8D48205b3fc9D994163B3bfcBfEE</v>
       </c>
       <c r="B18" t="str">
-        <v>0x85f0876d48e659660d2fa636f6ba5d01b1a524774416e258ded154e4f8929b9e</v>
+        <v>0xb36ecd18cba233fae90c27dd1bc9289ea4e0a6f3d42649effe87825522a933ff</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0x995e5D7693D55f719492bba5eEda52fd5BFe4623</v>
+        <v>0x7490e5c768fddCa937A9c4478a3D10C3a228DFf0</v>
       </c>
       <c r="B19" t="str">
-        <v>0x94b18db127735636c26a5c2a52d92d30bf7917b2c7170c4c9517796f6f17964c</v>
+        <v>0x539f23e50e8762dc8ee7ef5347a166099ad625a6ad3be2beca65811e2624bdd5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x09068aB77BCaD3b08AFF04AA7d9c0395aFB1daC9</v>
+        <v>0xDE89660B700c4488b68d9a38ba4E347aB0587B05</v>
       </c>
       <c r="B20" t="str">
-        <v>0xf1b7182565880b943712008f1f01bd56444851955b82e6f56f463e2cdbe18313</v>
+        <v>0xc0e9cc2e59857c04687a1f521a327b7b3f6aae40e4226f5d8b8e0ebad5985587</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0x101242523809CbA8E6C89753a60aF4745FeB2863</v>
+        <v>0x39f1A5736D5721ddb6C9Cc3dD85a4b87f40bfE72</v>
       </c>
       <c r="B21" t="str">
-        <v>0xffa1ef768d971c95eda6dd71253996fa6fd584e207e803bd1fb3eed235bba210</v>
+        <v>0xe79a576f6c9b8bf096807f04bc16ddd09914373d63e50cc8a6939b63b51021aa</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x4a686e2C427ef785ce1C0f750CB28d459f677356</v>
+        <v>0x8F621aB018d3c6Fc549B525666EF9E38203A0De1</v>
       </c>
       <c r="B22" t="str">
-        <v>0x3a332ceee2e8ba3d478ed9495b7c1533d49396d8c51f38ea8291f03077117f17</v>
+        <v>0xc2464ccf35530d3fe4d3b102f55ccc6731361ac3bb6e2a7d1da6be3290517ff3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xC48CdF7D59ea4660d66543a5B91Beb6Da59cf315</v>
+        <v>0xd6b8907a3cB50BB4F9aCC3aaBF5B7f79eb2F41CF</v>
       </c>
       <c r="B23" t="str">
-        <v>0xc83518b548e9aeb20a962b03ca741f0c5dba8647ae4aa5730fa66cfb70046a4d</v>
+        <v>0xe416d38fd313070da8b25f7de486e150c084fafa5afdb5b445890ac2d9c2b03b</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0x0043911dA2284cEcD5dc6520BD9770e734456a5d</v>
+        <v>0x375F2509C81b8C76425E58B939D03F1DA2acE0a8</v>
       </c>
       <c r="B24" t="str">
-        <v>0xdf499a775db303844bc09dcbddf0bcaed3015ef59ed6b362ac85d1fb34b52f81</v>
+        <v>0x41eede2a397ecb74c6ae0e61294ee48996c5fa0fa4aea559a1ebb8fd1dc3c657</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x66014db8a447D0f32F35CbB60e3444bcb82D7872</v>
+        <v>0xc8D6e7a4f3E057367B4F2d1ADc8dF2fB75A280C2</v>
       </c>
       <c r="B25" t="str">
-        <v>0x2d9ba4ca1d2bfa725dacfff0d1865650d9c7a0dd2d67884225cbfb266e2202cd</v>
+        <v>0x40661537f54240c6661d73cfb5f50cda6b613eb5cbf0572329235bcd0824f717</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x061e33ca1863c163A58638cF992dea82F517Ca9a</v>
+        <v>0xAE1798311508e7704100774365cdAF3F3Dc11e86</v>
       </c>
       <c r="B26" t="str">
-        <v>0x122debdc04aa8c4d72a32e62dfcbcf48854a763af669935488ae28933509f60a</v>
+        <v>0xb41ae915f1e4b3d715cb7d39dc9481948c86c26d21126996d6b1987e89e17b95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xA8AF3ee5ec64Ce30f3249CdfbaE95f607F76415E</v>
+        <v>0x6f425a3d6855458524D24eFAC3468e1239e90bA0</v>
       </c>
       <c r="B27" t="str">
-        <v>0x4fa7eaf80bcfcbf65cbb1b50d7ad550f5049aa6f5e3cef20c1aaabaff96e7b5c</v>
+        <v>0xdf55a81297703d409fbf11879da9c91d8b11b8b2479e5ec9692488259221488e</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x77C7bfC82a0D6899aE48761c32AA85E49F8dEc4d</v>
+        <v>0x97c5E66F2b321987F3b3c1E9885D4bebeAEab126</v>
       </c>
       <c r="B28" t="str">
-        <v>0xf2ee0b5fa03fd2f544166ca07fdc6cc79bdeb0e95ede723a1ec7c41397dfa7b3</v>
+        <v>0xd213cf0e057c7b284c5ec2c936712ad484c856c717736a0d7e6cff94ec8d9eba</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0x56b4903c02cE7e475dFF72F51749F21599831391</v>
+        <v>0x00f67a1f65612CC5815c1DD4622b328c072C68ca</v>
       </c>
       <c r="B29" t="str">
-        <v>0xc196798c1d56e99241019b6fa82d39b5f6a548a115ed37038fd97f3a3843600b</v>
+        <v>0xd7cbb59b1ec1175d31a07ab5738426453975a366750ce268916d2b53c89b33a8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x4C227642E1c1B49CDE2fa9b455b1437737daD142</v>
+        <v>0x32b2F724246B4B796D2771d075C8ddb3EAC71711</v>
       </c>
       <c r="B30" t="str">
-        <v>0x03cfb21d3deb520f1d8f2dfa8e6698f154c82b29fd831230d4559b0ebb7b5dee</v>
+        <v>0xefa56b45827ff91009fbe7c18952a01605098948f522ba70d0fbea9dad2c228f</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xB76bF1cC4e1fC6AeDDd5d236AC84D6CdD43DFCA2</v>
+        <v>0xe601A5c3849eBda28a71e792EB1d644Dea710Bea</v>
       </c>
       <c r="B31" t="str">
-        <v>0x8a2cc481c4c2603dacc097aa89630014484704e6d6d7ce0ca4387bf3344d6f32</v>
+        <v>0xf914364eafd528c387480b06bdedbfec41fa99c373fb3f66135cebfd1d89dadc</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0xDF7FE31aaF34ABe2eF239b8Aa302Adc080a99210</v>
+        <v>0x717f0ca3724d2993aBab6c96549252Be9a92A103</v>
       </c>
       <c r="B32" t="str">
-        <v>0x17cabd0167a617b2222cde0b4667a343fdc4b7b1b25cf96a720683fa6775695c</v>
+        <v>0x5d19dd1b85728159118f8ff6a9a166f816e4d1efea01fd4ecb35d1be6d29de91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x2a9C346a2c4D28eF8e046E602530127F4993a473</v>
+        <v>0x12055d6bDB0EA245022fb51b85a593800F3872C1</v>
       </c>
       <c r="B33" t="str">
-        <v>0x12851bad09d722a62b4b6f3680b4e84618829b4b6ac8015112532352779d9ac3</v>
+        <v>0xc439454ca786c90c9698736a9b69869d3c8fc74ab3948da4fb6bc0534a04ee04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x4D3dF0aFcC4eF60b18f76F3F49AD2eda81584341</v>
+        <v>0xa8a1EC3f9Ee7DF842B85B740EA5d6b1B311CF065</v>
       </c>
       <c r="B34" t="str">
-        <v>0x41ba2d27357708f9644569fd9b6dd3bf5aac6d0bd587c57dc7297899fb3090ab</v>
+        <v>0x26ad314a27de2e35a880b38407ba3226bc1d98248b0ccc0d3a01a74f97a8700c</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x0bAE61ED98E74b9f0dA8a98eeB483C9faD648457</v>
+        <v>0xAE30C2D20A415D1FAD7E080f2D147bB3F05757aA</v>
       </c>
       <c r="B35" t="str">
-        <v>0x06545c395a92dbf10987772278ee130d143a0296431cc3d067d8b65fb0601104</v>
+        <v>0x7909718d6a81cf8baf2a8e9f89be043c695a3e902e7f05a1cb26f459be2554a1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0xb0010FDf179Dce065901823926E34D16AfB6E280</v>
+        <v>0x8cC77917b42e13d50432BAe29f946C845B234d03</v>
       </c>
       <c r="B36" t="str">
-        <v>0x20eaf1b52a01bcc81563092c31a161e7b26d62ab24917ebcc5287ec689f77c0e</v>
+        <v>0x2f6acb7f941ae4b9f017c3829f9de3de39428a4d476718c53c77dffd307f8969</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0x4011E7e2D22128549B0C90C66C52AB9c7FB1769A</v>
+        <v>0x91650C85E15Ec147448C0Fb18f5051aF8968084d</v>
       </c>
       <c r="B37" t="str">
-        <v>0xf145a6ccac673a9e8a9d502b215f10b51b4e77499a53d1c28b31de4ce0b8f4b5</v>
+        <v>0x261172608629f26c03db88c3f000d2789e89fbca0648800dfe54f351a68f4f3b</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x368fCe22B4488c379dDFF56bA8956a78B34fBC10</v>
+        <v>0x7DDd0cdcC9aa2bC593A147314b7F114240Dad8F0</v>
       </c>
       <c r="B38" t="str">
-        <v>0x40ee2872cd029c3febc8da4fedc06794a78f0d8f135c213787fd7e9ea73111c0</v>
+        <v>0xa02725ea9cf7c56c9d2afc81408d0da33b13fdfbca00957e20a424b11145664a</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xD86158f53F7b598323C68b8445fD3e0A09CEB673</v>
+        <v>0x3B5D0d3481f48569A18447e264DdC3CE35E1685C</v>
       </c>
       <c r="B39" t="str">
-        <v>0x932edbfcb3db5c35d251d7ea851d08ffb4ae2f359f3be788190135f690fa24d1</v>
+        <v>0x13bc2441f28acf0269993bb834f1cfdce175a6d9302e14fdfb935e23f353bff2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0xD4E8274Ab1Bc22880F7eb4b95f3964BfCb54723e</v>
+        <v>0x1B7A176d2B0d5Fd4FEC0A7487409a64f8A8893c5</v>
       </c>
       <c r="B40" t="str">
-        <v>0xe8ff99cad5958a6fc8813d6b335b638a8a41dcf8b8ea8821eb2bca1b0ca06d47</v>
+        <v>0xee68f8f76b2242466bc36bb6531d082650881ce2a0890012795b7194369ec000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0xa28ffCC852CB793322BdA293D66eF79aee26811B</v>
+        <v>0xCdD1515c38896ff822530E9F78bD413b1278eD5d</v>
       </c>
       <c r="B41" t="str">
-        <v>0x51ce38a3973e25a20a7658aab80a3834493abed9799cc48cad409cbc63131817</v>
+        <v>0xa0da03ccb8da385a8db043ea7cb58c3c811f39234fe1b54c4e2f003b7ee6a39a</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xbd866e30F8fD875B5b087a9A24F8F99b911217C0</v>
+        <v>0x26Bfc836Eabef1b82C1cA6e33B4074aA568C488e</v>
       </c>
       <c r="B42" t="str">
-        <v>0xab24edf094e3d3fc987a2b43e45d20f2c3b5ece047b2ec9c7652d5f81a9d238b</v>
+        <v>0x397c2de0ecac3f3a20d0039f45891ffb56146e6752c00e911eb2d6d373bade46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0xcaa2aabd5C1b5b032C5A262a2025d6c88192eD8C</v>
+        <v>0x510b7A60C72d2F3702f5fEd463C6FEe1e616De63</v>
       </c>
       <c r="B43" t="str">
-        <v>0x3c9394967cd0994c868471e25892a2b744fd599968325d6a5c3a3b49acd23224</v>
+        <v>0xa6c2fd4a75e5f6cf35e16ec4f6e8e2b58e1f55d10fdfb647a2c0c64645ba0705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x9eCDA2a8fEaB96ea57442F420358FDCa8500f1CC</v>
+        <v>0xE09D168E5B532030457866ECf307E323f44A2335</v>
       </c>
       <c r="B44" t="str">
-        <v>0x49fb069e32594dcb559e9cce13922d3d11a4e74c86ba558c823038271088351f</v>
+        <v>0x9f7427999ea0119f6c1a3f4acccded4cd5e108ae2512a2987da29a4c30219913</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x8510a3f7af6c517B3D46ff649163045B9f8f88F5</v>
+        <v>0x0702b2E9a9673B21a871964d0253214d696D8E7e</v>
       </c>
       <c r="B45" t="str">
-        <v>0x39a41f0cafa6148b97c075ff641035263855f4fceabd04e5a74e99d47c63b9d4</v>
+        <v>0x5c4c886da6c819fa37f57b99bb1b80eafcefea99dd62d88765663989419785c6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x4E086b25F327fBd810D32E410Da6ab3750fA5c3E</v>
+        <v>0x7a70b1D94b4918065Ce0FA575479CE4c3B6e8315</v>
       </c>
       <c r="B46" t="str">
-        <v>0xe47ddd5b7cfa8426fbb1dc33cbc043666138cd5d13b7c862521585b5dc59182c</v>
+        <v>0xa17fb4ccf5da06bf3d433d0eeb848983e83d887c41db5d4ffc17691e6965bad8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xB32e22b5E09e24B552b33f723458ADE7B416319d</v>
+        <v>0x9D61Ea9653Bd67CD8DD1AC52657264F96F64Bb7f</v>
       </c>
       <c r="B47" t="str">
-        <v>0x6e62526ce4919cb68b7658c7fe21c740cea970c4b9c3cfc0c2d4155c21f3dbdc</v>
+        <v>0xc538f3bb748e831dd90d8377ced4df8e886585b6909783a219380a2791b90f7a</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xAfc9653D38D34AF30fe9736F97Ce12BbdaafcbC8</v>
+        <v>0x25B99ACc93622Bd7a03971C5311619D012C4a03f</v>
       </c>
       <c r="B48" t="str">
-        <v>0xe32ce93f861cf20d4d425777a6a9ef7e075d35a16d2e44ce4ee1f1d7d37ea541</v>
+        <v>0x32fe783dd417f4fc708de07501f44a6ad90f2a31d2232d6349578783b8211e55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x8335033Ac9BF5aaD116904434293dB148af04Ba0</v>
+        <v>0x8B24152dD1E5F44a8c927406A021915d94bfb13b</v>
       </c>
       <c r="B49" t="str">
-        <v>0x8084ee6e7ce255b1bf634a05d1fb9149a13d96d1ade4ffe72b41c29cd996eab4</v>
+        <v>0xb538aaae0b06a7b9573e634ba1c5dea2c7b3bc9c86e0ebf020ea59bb08e5f7c8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xCB81Bd705FfE5D91aCB98D64c4667A348732b0c2</v>
+        <v>0x775a6f91ca752eB437C6A5Df18AB47c1c7B5Ebb3</v>
       </c>
       <c r="B50" t="str">
-        <v>0x640062007842aa23d4f8f1965e920781b61779de7ce13afe95863618166145dd</v>
+        <v>0x25e324dd570b9899dfbc4e56a850fd0ccd132006848598aa39f5dab14334689b</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0xA38F1490e9f55DdB6C308B67B597bf995CDF2E77</v>
+        <v>0xbFbE8e4b5b97dE46254Dd63c616C62d64C700D42</v>
       </c>
       <c r="B51" t="str">
-        <v>0x899523db4f8747cca40765812723001c15812735771f918f71919da4364beaa7</v>
+        <v>0xf9dfe3060b0bdfd6eb5b0b5bd0cb21d1d9e3513f10b52f7b5cbc552f2173e4c1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x6B4FBEE05A1CF0B6d74Fa683B6B039c72699058E</v>
+        <v>0xFfec489746347858d30145C73f58fE4B28498C91</v>
       </c>
       <c r="B52" t="str">
-        <v>0x4222126c5a1b370613982d5b4e05fa20245b91c8706f50e5cb173f0fa895b14c</v>
+        <v>0x7dde62ecc2ecb5db94fdbdaec3f082e7fd38b25fb50f85dac9375c96d8725fd8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x546E1BfB8E9B193C8970f9A2f82e15473e0c52b2</v>
+        <v>0x1F030F7619b4D927e8d2471531C7eC6e8D8479fB</v>
       </c>
       <c r="B53" t="str">
-        <v>0x96e5b4f087baeeab96cdc84740a2e145cfe87a712ebb29bba533f9e82fb1bc89</v>
+        <v>0x42cbd538222d4bc2463d7a9f4c8f2eccc51040bf09a611d7f91264b3a008f897</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x22f03ae99488E801aaF797BECECFDA390571884D</v>
+        <v>0x2431dE0Cd27A2181f25DB44296Be4661D21052e4</v>
       </c>
       <c r="B54" t="str">
-        <v>0xf42e635156139f76c569902244ab0977cc76e96fc1c4faaa125ad29b6ed8a992</v>
+        <v>0xa5344b8c1c15da771f17b7ac3bb604b20edf382470d0842619671d123efdca70</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x14b6bA81bB72eb635f655b4baAFC09350daAb188</v>
+        <v>0xbcAa131c24ae5D89462644E22429E3750d1Cd5C5</v>
       </c>
       <c r="B55" t="str">
-        <v>0x6f65906f87568a8343eb50b36121bc692729f94caa382cddc7c3028df3e11f20</v>
+        <v>0x1ce94a23342ad472b1e83399fbfa28e67e2c7c32691942b5d64de434eca57dbc</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x5388f6482e1b2595ae6435DA5AF130793770bBe3</v>
+        <v>0xeE5b58093606f332ff3d652B13D1c086ef4D7D40</v>
       </c>
       <c r="B56" t="str">
-        <v>0xc31b67fb1f1bcbbaea3ce76635ba7e121518dccc7e67591f08a6928f96f5083e</v>
+        <v>0x67a996f3cbda4596c0fcfb7d79cd4c531f4de8032aed42072909750a76e74bec</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x4B72FD457bc5B115ff3CE209004Be1e8C0105c6f</v>
+        <v>0x94cFc396D96C03C006a392071bdB25A7b629F961</v>
       </c>
       <c r="B57" t="str">
-        <v>0x15d2aaf2af1ef4e10d3318a9ba3008a2e1ccd6eb0141f7a3e33c9eb767df5947</v>
+        <v>0x933da6dca687cd76fc05b8d5baaad03164d4130e5087227315a51a4c74602e6e</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x2490d763C14dB6bF4aAeF03fDc8AacC241c67Ef1</v>
+        <v>0x3DEC7e6b4A88FE1DC79755e8997B3D7c040Fb7c9</v>
       </c>
       <c r="B58" t="str">
-        <v>0xbffdd9eb0159e4e748d2689fb336f8be2e0eb05ed543d246bb4359739496b33b</v>
+        <v>0xff9103b6b0f96b9e17d9f231f3c92252e46ed184beab56ef92acc3f6ac81f913</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0xc13cF0B71f8478BaC66120359a0295fb7553Cd8a</v>
+        <v>0xf4F5ae762F2b2bbcaa1f68a8158D6FF14BeF5aF7</v>
       </c>
       <c r="B59" t="str">
-        <v>0x729e1f7c2f1ea53c61cebcface690d88fc8c4858490ff84c8db7ef1419bf8787</v>
+        <v>0x567a5d3faa790e318bf4a5662af2891b51c14849ba950315da3b073320f492af</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x871E6F501BA38d78458f6fb17dd1984eACbE7A00</v>
+        <v>0x58cb1D572E7CbE1E1A3c30C668F1bd53C4D45D7A</v>
       </c>
       <c r="B60" t="str">
-        <v>0x24c6ee551e2827b13dec61f78a3d01903b635878700e0ea0e30a81fd3ea4719d</v>
+        <v>0xc08a48dd87c0cdf77423844e3ecb17c49d07fefbf0d3ade1d82fbcf307fe0feb</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x0bf58a640a4365c0423C53c33481a1c5fc1Fe12E</v>
+        <v>0x51e979fE4C69802b08daBa6a6E16195F5434364c</v>
       </c>
       <c r="B61" t="str">
-        <v>0x6108ded0be27c7fb0cff4770b498e585fd23e8a2e3707c6515fc2e0599f99e20</v>
+        <v>0x6e79b1ec1acde470a97a4f4272d0aaabc7c3b9ff42e0f97f23c5f37aed3e40a8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0xcb2246A7eb5C07465BB3e25CA84c20FC68AB4Fbc</v>
+        <v>0xF22e26E99BB3725f143B159fE77a4cB14201AaF3</v>
       </c>
       <c r="B62" t="str">
-        <v>0xc2b2b8a27cb9cde73f966b3e9c1c06a1718bf8682b241a9ada330a7602837845</v>
+        <v>0xe978980cb0d92294d1bde6e60a8d3e2e3ea60cb9a296dbe83b4d6b61ddf7144b</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x55582D6838f2f8E7b4F0190989564ACc4ce193b3</v>
+        <v>0xd325782E7e8b35bD3A42793486b9e742355ffF8c</v>
       </c>
       <c r="B63" t="str">
-        <v>0x018ff362d550495ceab57c0345abeae5066c0842f07b832967f216ab0329b4d7</v>
+        <v>0xcf27ac29c37da0d8760329df60292d209664f4667f804a664a39bb76f317b2a3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0xa013Bbd83E80C6a74a5711e59BEc90be9A1bd615</v>
+        <v>0x294fE6B17CC31e348b1146cb6c75f1f603496A5A</v>
       </c>
       <c r="B64" t="str">
-        <v>0xd6cc5d4a11487855731dac295de03eb0cee7086f234fe83d31d4f546c936155b</v>
+        <v>0x05d361a8d065b68927911fe5cf026a203bc23dc71c72e2b4a75427f537f89198</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x1028E785275909312B3145636E5a3595a6C6314D</v>
+        <v>0xb0F0b8168C06b0c00F90e7950DFb6c6949038786</v>
       </c>
       <c r="B65" t="str">
-        <v>0x059c74fe9d2993a57f33813e5d03d716a68cc12bc347dcd6ca7c87c0e703cb16</v>
+        <v>0x497005a2477b61cb2c3a9290a2972ca5aeb5dfe80599d4211a55ea528fc19ea6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0x081E82d0067F7a465d57A747Be68F85A4D5821fb</v>
+        <v>0xC2cA7D490fcEF385Fc218956BCa83c26a300D067</v>
       </c>
       <c r="B66" t="str">
-        <v>0x9f07d2cd8104fcb3a3a0754d6a1ffe5ce04e4fef2340740dea9f7b7004f2f729</v>
+        <v>0x563810c45a37da6a63515d97cc7fd17c0e85cdb945a5ab57f0657306898a7b78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xfCf188335f12a4b89dd741A59355A2724CEdB305</v>
+        <v>0xdb97ee62842B56339081Ec5938413615e5F2C733</v>
       </c>
       <c r="B67" t="str">
-        <v>0x7eefcd3148dc976471edd0512add3c0a092fd88b429965f40d3e3e803c83aec9</v>
+        <v>0x77f7ab44703c068042bf858fe2a9a8e71069abacd6845b7225a453566bbc1b63</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xDcd7b7e871231cc732f6d4E261d6136637Abe067</v>
+        <v>0xCE5a3c05dEF65b83a3979E645016631e410cB0d5</v>
       </c>
       <c r="B68" t="str">
-        <v>0x7ca8dd7bffc36da21e24a816714311da9fd4b8d1f24624d675fc8f3f7ac20b11</v>
+        <v>0x54359dd2663a1f0defa8eca8f8ff8f9ee5f985fea77d78e606fb27bce0f8e80c</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0xBda69672852FE9Aa7FA785C94Dcee15828D1073B</v>
+        <v>0xb42516Fc5675C47209E8A3E39a2977bCacCE9C3b</v>
       </c>
       <c r="B69" t="str">
-        <v>0x776f3aeab4c9dd962c1c6a87f3559a9e5207e4d6a156e434f2eda944e3fe6817</v>
+        <v>0xae228525405e7a58f5aaf29a21d7c91dc5c657360eacc256e97e809731d1645d</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x0e0B0787E3BcaB9bD6a7f85576F912d91ED45d83</v>
+        <v>0x1C787633BAb43dB93fe13E324aC8906e257C6b72</v>
       </c>
       <c r="B70" t="str">
-        <v>0x579bd938f0ca02d99c8d29848c61652a015078d344239ad2221393775f53ba79</v>
+        <v>0x223785be3040710ccc139998aaa6fd8fb2c15db4a602adeaa512d57e5e23e127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x86079b7c0126d4b7eEceBa8deEa86b1B1edDEF68</v>
+        <v>0x4620A46fF10da684964984BE2a6Aa9D6A106E423</v>
       </c>
       <c r="B71" t="str">
-        <v>0x0e74ec572350a161afa5fa14c785724c581593795244285669fe8c22814789c1</v>
+        <v>0xc50504ffa09d16bff7d9ef913e09125e3ec73aca263931a03f90e3aba89a3174</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0x4C21d410F370d09AE2B8E6A0f0502B08517193f2</v>
+        <v>0x3A2D987A29B5B706781E7B0c7a08E2dc3973b6E4</v>
       </c>
       <c r="B72" t="str">
-        <v>0x881596697a8a02b2fec84b6aa354c77f02b49c833a648a645ba896be337e2b0d</v>
+        <v>0x09ac9d276afde89b88f707d7291118b94aaeccab51ddd9d9f7469d72a790e127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0x0C94aF6ec23d7D60A5D8Ed7cdA9C913332885CE2</v>
+        <v>0x2522f77E4cBD3E095af0F505aEB87eD5C61e17a6</v>
       </c>
       <c r="B73" t="str">
-        <v>0x7918a63b5c79551f8681a615ebc5c60a3519dff405c7f867e6eb649eb6a1074a</v>
+        <v>0x3a2a9244b533a6258f89762cc535a27092e1e2d3bf268b1cbfb9ef1c9c34f0a2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0x74dEa92dF340Bc2486469237ADCe919dA5DBF4B5</v>
+        <v>0x977B2a457703151B99bb1ba2b6BD92D254D4524c</v>
       </c>
       <c r="B74" t="str">
-        <v>0xa2700ccfd3e512b659f678d7e4da6272f8e93e0cd0e15b592ece9afabcba5919</v>
+        <v>0x2587e1db2028cd63b5c65536bf815aaaafff0a916dced82be5609cd836d75eee</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x500a9366087271399cd595675e64197faa0A06A3</v>
+        <v>0xFb6578bB848FE9d3b7e3fc08658C23a3fdD05D3C</v>
       </c>
       <c r="B75" t="str">
-        <v>0xfcd6cf6158f0ec121095ec07e57b73777eee0703b1d456a5effd956ad768bbcf</v>
+        <v>0x0159c93538fc00ad7b16aadcaa000cf2f5050b7a6b3f4afeafdea26dda433e82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0x7B66590C20B175836e6a0CeE0D982cb4349bD627</v>
+        <v>0xA2954eA80cB55ceE1487796850B0e3155cBC223A</v>
       </c>
       <c r="B76" t="str">
-        <v>0xfbf577559e0f9d1d09535d17ab03969dd0fc095d2f4f873bac51a354cf1e4516</v>
+        <v>0x5b06257e831f600de8733402743d14b3fd2397d14f8949c1b4b31b109820525e</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0x7e0e25c2720234E990a2bEF23ffe6400694d6ec6</v>
+        <v>0x5233cEc2804896870f8c4AA2C7183900eCB2a286</v>
       </c>
       <c r="B77" t="str">
-        <v>0x196e8248e8b37c5456b1168941b1e216a3f17a3920bc4879215598b82047e24a</v>
+        <v>0xe1e3fb0e8f564175ca5c097ea79d4316334ea2d2438e601302009d16e8d0a60e</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0xbC0b8650819dfb9923Cb81b6F3d1C40c1DE5e3aE</v>
+        <v>0x0f8fa978A844531e8e6B18a22739FFdDb0BB23Fe</v>
       </c>
       <c r="B78" t="str">
-        <v>0xa6bdc698cabd6c24db8744fa99d1f772f993ad8ccf23e8fac99db57b3b9c114f</v>
+        <v>0x00f249214fce097821a1c94f9dfff8fcfe45acebd090ddb80248be3bff1e359d</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xd2C7d629cf21CB21F007b08B17552aC966Ec301B</v>
+        <v>0x3A0154144347456BD4e74571D07B6ECa9d6BbdE2</v>
       </c>
       <c r="B79" t="str">
-        <v>0xc42a46ea53ddf31d14ad0abd47ed7dd77ffcf0233e10e6bdf78f2aacefe2b94b</v>
+        <v>0xa4308b47fdd4857af985e0966073f93a657d47ba916940abb365250370d36615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x9Fd5c5AEceBE7061cCB5469a89BAF7F9da8805d4</v>
+        <v>0x5C0304885847b93187D35889C4253B430f4103F2</v>
       </c>
       <c r="B80" t="str">
-        <v>0x6af11d36bd54a737d6d19627efdbdb182140c879e8703a264424adb3cdc37bf4</v>
+        <v>0xe949af0786f1bc7f42b98dc9fde57014a8eead458ba486272b5a08bb598074b0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0x447A480fa600532D4a6e4ABec8B3D1A74855e9eb</v>
+        <v>0xAA3283273e454478a07D01B5a439Aa48c80cF181</v>
       </c>
       <c r="B81" t="str">
-        <v>0x16bd2a7f9400a923ea531f38f5a0ecadedf5eeda4b2bff6c0ba6e34904cb0cf3</v>
+        <v>0x66a02750f6a291ab12f834f92eeb7b02bdfa23b3a3005c07cdfcf3c739c2b5ec</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x37604EC1812e989F57807795704459A764F8c391</v>
+        <v>0x47930784489b9Ce505Fb5331DE40a6D8bB7AE6dD</v>
       </c>
       <c r="B82" t="str">
-        <v>0x771c7816fbe689fa807ad283fc030d0e5e1cc7cfd575554aa2c28120774f9255</v>
+        <v>0x59a4c30e31c0cc41a40b65fade065d5afcc7d63d3fe76c7ecad40582d9ff437a</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0xFab059bF7B3c41b510623740E838A905644e5F38</v>
+        <v>0x6c5033FD717EBcA933D27D2cBc69f27c634463d1</v>
       </c>
       <c r="B83" t="str">
-        <v>0x9b329fd078c05ac77d72aa0cd710b0d17b19dd2ea5e657bfddf8e6fe10bea0e1</v>
+        <v>0x8a89fd45bc7ffce4f594397033f00a84daf378a447c8ec553c971f0400e21aaa</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0xdB90a8C901DdC7A8749d2474E75591CC2EF80533</v>
+        <v>0xFF287AC409635a534F89aC78D5bdb7a589cd95Cd</v>
       </c>
       <c r="B84" t="str">
-        <v>0xfaaace18da70c9b29a2af6fd1afb305d9d1c28b959d57bdee93b8d2b98d95c77</v>
+        <v>0x3461a614bd5ca960b61a19ba3b0d8c0aa21653361b4b6e8add5f3372b1a91a05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x38560966B45a84d72d14d2f8f1aF224245b70cb5</v>
+        <v>0xAa5947Ca261B93433Fc48ef1F015147dbA436202</v>
       </c>
       <c r="B85" t="str">
-        <v>0x74a313f5e37f44f4d86426a3f57a43ef0edcab314aa9d818c121ef4a63837caa</v>
+        <v>0x93e04ebe34e3e142bf079c67b5ce1f7ad36ba53c696ffc30575d70cb29b069c3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x88De2261d3e6d51BdC86e936F9532E82b530e99A</v>
+        <v>0x3f1b7E8dA5287dd59a7d65eA2050D12D5c156867</v>
       </c>
       <c r="B86" t="str">
-        <v>0x8a16b62213252fc619ad0adb17e2288e21ee41852d68b0273d9a670d9ba301bf</v>
+        <v>0x97fc308300193e3eb13e05e4985aed4ba2db895f48f959d5f782701db97d2111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x55200EA1afAd1c237DFC499771EbB852C15ef1B5</v>
+        <v>0xab2b49eE1BB985f584e6e3C3F06C1aE3EF30dC8e</v>
       </c>
       <c r="B87" t="str">
-        <v>0x25cff1732245ced2909ac9d6b7633526db8ac4310a2940f02c8ac77da1679934</v>
+        <v>0x90d5d4f830db3477c249b774d0a8fb51e750f25767f03a441dc3570c93f7d184</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0x7B46F243E7d42E22509f6E1CF27d0bC78F4518A6</v>
+        <v>0x33325581A3B4e24223662696E3fd5E3C3A618CDa</v>
       </c>
       <c r="B88" t="str">
-        <v>0x15a3d82e1e7e0fc98644264e791b927273487979fbcc83cbc6d056607e6ea3ed</v>
+        <v>0x844d0532ff30319abea8264416bcea4002b319f743e7b8adbe28c6be31636047</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x953b75a4D5Bf4619385b04D63Dcb5B826bce3BbE</v>
+        <v>0x3dCecf47B531D0Fc6a940F72E83C583130500cd8</v>
       </c>
       <c r="B89" t="str">
-        <v>0x3b4efdc64c65b3df2bb3059f27cbc86ede3dd35fbb1c0c6aeb5bc9b80dc06fe0</v>
+        <v>0x261df7eef929eb9c82ae4f8d4e4e2be56ac7ba9b9b7e505f90b5a55fa2285c5e</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x4773b55Dc7F2273d079C124D3A4dBe52cF298492</v>
+        <v>0x0C583AF66171FdEDE58Ec4175325D0EA740042dE</v>
       </c>
       <c r="B90" t="str">
-        <v>0x88a91db7b61e7938ca7708525c4ce13d34ff94cd9908184b44643d86b28363f7</v>
+        <v>0x2385baa25d6eefdbb1245984cc1c7a135dfac7c8f3ee1634281d25b69127dc5a</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0x1066F6e9a096CAf3892f7413accB7e365cF549C2</v>
+        <v>0xd21c6de0b7CaCB0a6c2Cb605A22a0281533Af755</v>
       </c>
       <c r="B91" t="str">
-        <v>0x1fb66c0477c40fb9737a55aadf8b391c8c85dc558a07a562dcb6acab13c64529</v>
+        <v>0x03be40ed8f4bf887cd57dea8ffb70e98703201c7c50cb68df26e5983332c49d6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x6734Dd0CCBF17B9ed6241e2Bf9A4816297BfC933</v>
+        <v>0x4E8DFDE2A9bFCf59E9b2A28Cb11b7efE533EFe68</v>
       </c>
       <c r="B92" t="str">
-        <v>0xea4ade9357bdd598e2446acb3ef0dd60bc25d22e25df45e7ef94ba61dc93764d</v>
+        <v>0xf73104a7eaace76fd06c97db644599666db50ef071d1d6c27ac8ca7d186260b8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x0aF458D83A0bfeD409a39BdE58E529e6009f80aA</v>
+        <v>0xc407973ac6EbA93E74741ead453F938B48a7Bd3c</v>
       </c>
       <c r="B93" t="str">
-        <v>0xcef77ac0e19fac0b3b641c26dec3d7e400c42afc4cb6cb783535323df90b8a0c</v>
+        <v>0x67b5c422eb8dfbe66dad4cd1828eb560d5f76008fc0f76e428ca182be8175987</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0x2F0Dcf923CdB2D1a41DBC7bE9BC9b7d89478d560</v>
+        <v>0xF630C38Ee1B100c955ceaFef6e9476594a082923</v>
       </c>
       <c r="B94" t="str">
-        <v>0x5c82616435fb7ab3bae359c4f6b3b2e1c64f4cc854f447fb72684ab2f667df0d</v>
+        <v>0x48789aa3f03fc97f7d445c217e93d5a1bdfd9e990a53aead1fbb1f8edf015b79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x0Df9db87F174f747b92aF926d6C2E430292739Fc</v>
+        <v>0x012f7D698629EfD2036Afbd933194E10620018AD</v>
       </c>
       <c r="B95" t="str">
-        <v>0x152d5db3a46ce9fbcde89e2683c058fed622b92606cfc74d03b67a386835f07d</v>
+        <v>0x17899f7cfa7fed413f509cd9985dcccdcb415e4f3287d9b34c485c0057a5fb4a</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x9197779C8B39ea3730993B9845c8D739FC282e9e</v>
+        <v>0x826b75138737e2Ba234b17707241F72a060B572C</v>
       </c>
       <c r="B96" t="str">
-        <v>0xeb0080aceb698188465cc1a9e2d20e46b921ee4171c3ec2543a2a1fe7a65c6ed</v>
+        <v>0xb13ae7c98d15cc6f656ab5455858d534db2c8d0d1448565eedb58250ee538afa</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x61a074D16b339F4CF9acbeC09B5E38538AA5E078</v>
+        <v>0x473A316745c0D03e64407C2C793AdBd7FC3B7E3F</v>
       </c>
       <c r="B97" t="str">
-        <v>0x7b93a02d5c518293ca5b7625a4d8f56c1eebcdb910cf42823a4bf5c1961600c0</v>
+        <v>0xbd00d29ed4195ed4f5e94e08e097554feeca524cac7d2697d5bd3bf04d014dfc</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0xdacb0Fd4765E29eD7b057394Bc7c3D7F2a8987aC</v>
+        <v>0xB1D6b10Ae64FFB41d8319E8e2400C6Cda767C34a</v>
       </c>
       <c r="B98" t="str">
-        <v>0x27f0a91221daefb08fd18f744b229b4ce40383a0d6ff2c9658ce1f64b7f4d390</v>
+        <v>0x5bcb23d7dad8d0e8049d3da607c0551ee4038cb2c80f018852a2fce8e3749e7d</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x6D18C744823102C9767018582CF275A2CFf9aB2E</v>
+        <v>0x93b63a674811A63C206F4a3a3667dec18FADd8C3</v>
       </c>
       <c r="B99" t="str">
-        <v>0x8e153c784e0e8579dcd54ce091c3cd06f0d5f893f6729ee8da7ac8b702789940</v>
+        <v>0x4f66c55ea11805d14c22339ff65945693a842a06fc68704ada40427da4af26c4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x69bAD9Db2fD21A3A429EfAE99393318C7b2bA815</v>
+        <v>0x790AFAC5a3D55088613fDf59734d5565F4bce6F0</v>
       </c>
       <c r="B100" t="str">
-        <v>0x13f96ba06e6b66c4817892505e0286f02eb16ae6c082ad9b96e1ff5406629fd0</v>
+        <v>0x38f14f92ddb007ab8a28dd19c7ff9b05402f67b8dbd2ddc717da1a25dc2714a6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0xab17fEa5A7e77ca83C7d3985B1909e7F6FbD1C5d</v>
+        <v>0xDbAdaF9A37eA7226c4a62C4dD64AC229093ef092</v>
       </c>
       <c r="B101" t="str">
-        <v>0x5d0f8b48a4e6123a34e235fd20656b77fe9377443d25e08c994af5728087763b</v>
+        <v>0x1813d8a265d9592d8e8fa390b673cf1040d459d93a3c98d9196d0a43b3fb9bb9</v>
       </c>
     </row>
   </sheetData>

--- a/usedData/accounts.xlsx
+++ b/usedData/accounts.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,117 +415,2757 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xE08dB007b15905d64412efd4127705cCd3211062</v>
+        <v>0x5d8F908642852d6BcF41a9Bc0cf548774D7b1e67</v>
       </c>
       <c r="B2" t="str">
-        <v>0x8b1026aa3b3d8ff8a4312d115b762cc785c9db54d5e2dbcac704673406ff41b6</v>
+        <v>0x3f985ce8f42e66b2a595dd11872ca6920043bfddfb3664158dddfda4dfba3e2c</v>
       </c>
       <c r="C2" t="str">
-        <v>royal spell symptom accuse amused rent loyal circle stove jelly coast step</v>
+        <v>fog fire hood ability sand fashion viable lady raw helmet curious inhale</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x43B3770794deC6f97F0DEF8B343e18603b71916D</v>
+        <v>0xCd2e70E67e08482b728904d2DDE959A605b336bA</v>
       </c>
       <c r="B3" t="str">
-        <v>0xf373f0c54d2c09d4eded7e345fa61fde964ca9e49d7dc621813935d62e28400b</v>
+        <v>0x9e74e8d82ee800a3ddf5db678b7c9d34b899387b82ffcf9f3f4ffd4fd1378a21</v>
       </c>
       <c r="C3" t="str">
-        <v>start admit round sign lens swamp tilt slab nation opinion hidden skull</v>
+        <v>sell hip unable security barely gloom puppy account reveal luggage discover clutch</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x2804b8FfD21b18292797b0fc533A1769B701582E</v>
+        <v>0x9359050E109C60c5B033722F683555A5bB921D6B</v>
       </c>
       <c r="B4" t="str">
-        <v>0xb5211bcb027ca4301bd1f96cbd18e50344ef8240cc56a85d3650f9df8f570a16</v>
+        <v>0xe9d24f69f18aa33e63fc0fc365f5ef43baaaca194f854ef6c3a9e07111dd3b3a</v>
       </c>
       <c r="C4" t="str">
-        <v>unfold marble day together black blush sock earn gaze sting defy choice</v>
+        <v>path nephew current remember lyrics avoid cage potato security dinosaur opinion sausage</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x12c814Cbd2AbB4275981022F610779E439A44808</v>
+        <v>0xffc46dF37D640E26739E05c4e502A3A0f8B9b100</v>
       </c>
       <c r="B5" t="str">
-        <v>0x1064401c390142ab89914528a0135ee8c10c850bd9acf9a975f3bdf1b9fab104</v>
+        <v>0xeaa09ce279bc51f7234eeb1734ae8afa88e1a552df5ee069db70556d392de15c</v>
       </c>
       <c r="C5" t="str">
-        <v>chat soap satoshi spell exhaust battle capable document actress until spawn gauge</v>
+        <v>alert speak enrich unaware icon wealth camera ancient wing mask hub enroll</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x5a0fb59F2c4323d36e3fEaFFE4E0d017e501185F</v>
+        <v>0xd459E627a5CE31aC6e3559ec182E59EA1Dc63D1C</v>
       </c>
       <c r="B6" t="str">
-        <v>0xb682f789684fea2dd82b918e51c8f16c64460818e22881cf9f1fc08fdeac3ba9</v>
+        <v>0x7f7a7e94676f3b18a9e7cbf3a95b7f28735f30feb2eb9815b81cdd7125d4e99a</v>
       </c>
       <c r="C6" t="str">
-        <v>arrest capital rug giant eagle chase aisle govern science search analyst patch</v>
+        <v>area member hint quote extra mechanic drill area man cricket odor subway</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x741B537e1301B7b8dd1dDC5Cd6729307bc7b933A</v>
+        <v>0xb2E9f69ef4016962bC3837d3dce8dd4e1468d130</v>
       </c>
       <c r="B7" t="str">
-        <v>0xd04e1e3c6c0c7bb9eead945d50f76bccdb94c29f5ab9cb8de59bd6f219b66605</v>
+        <v>0x2166d63bf3f67628bd410a31df787faa5d91817075863a866919108921a28395</v>
       </c>
       <c r="C7" t="str">
-        <v>turtle mind behave change about mass wrestle betray equal level stem cool</v>
+        <v>chuckle upon engage search fall flee twelve ancient ritual dizzy member impose</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x5CA90C91c3D51a6B9B24A2894baf715977A63b8f</v>
+        <v>0x2efc7d25Fb4e23d31407005986F2708759D44839</v>
       </c>
       <c r="B8" t="str">
-        <v>0xde47e850b12950a0b07b03b5ae7a2da19917c1e1a5a304a2107f6adc1f5777bf</v>
+        <v>0x78ce44fdd5431665a74af27d31e47d1c574d68c75e2e6191e76659b74e8d5f01</v>
       </c>
       <c r="C8" t="str">
-        <v>prize pill umbrella decade grab prize high brave cruel caution aunt can</v>
+        <v>struggle pistol buffalo glory thought obey claw mercy morning asset charge worth</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x37c5d74877e1579e59F2E05F2768e3Ffa09aE086</v>
+        <v>0x9fbe2655FCd0935861cEb8B0C0Ae37C94a6B8D18</v>
       </c>
       <c r="B9" t="str">
-        <v>0x28487d5771a1782b74659a42ab5b7526ad7b47de7ef9b256cfaaf00576ab7623</v>
+        <v>0x89847a5045c1eb1fcf4308bc4e1be6cf08fd5707d5c83444c8c5b4da30c6fcc3</v>
       </c>
       <c r="C9" t="str">
-        <v>auction script valley panic only august dash visit jeans rate float labor</v>
+        <v>basket polar civil multiply there job million sausage plate siren team analyst</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x94d53aA0c00aB27bA27fEeCbA033E2D373465673</v>
+        <v>0x3772C6DC9b1e6Fa747F5a0D125993a10666Ac3F7</v>
       </c>
       <c r="B10" t="str">
-        <v>0xdccda333e99e7aeed9b88132e418c235a897aa0d6af335df9f9be92d276124ea</v>
+        <v>0x99dd596dc289a0627c523f97e33dcf43f6657d9efa1ca6dec1960a99443a5044</v>
       </c>
       <c r="C10" t="str">
-        <v>glare dismiss dinosaur family piece fuel balance boil true pepper surface creek</v>
+        <v>cheap aspect inside three kite story shift hockey seven minor pumpkin gold</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x1Aad5cc36C8da871AD28eE20fa923972d9D0e354</v>
+        <v>0x2394fa631E5101B61Ac3213c9B9D6A1D921f65D3</v>
       </c>
       <c r="B11" t="str">
-        <v>0x224a93b7e265b82667245b9a53bfca90b2bb2188cbd9485197f83fc133f2e9a0</v>
+        <v>0x13d0cb7e6a55a33db81e925b7d5d46b891adf49986b590b280b48f582195b010</v>
       </c>
       <c r="C11" t="str">
-        <v>toward extend hurry into cycle truck guitar sibling despair cool wife view</v>
+        <v>choose crime jewel diesel answer wing act noble shiver casino execute damp</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x6DbFF9a67a087a5BC772c98E35b2a80060B7e753</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0x957cbd415c97b9153b429f05132e37aeeb1fbef429a10a88f76f516719be5e65</v>
+      </c>
+      <c r="C12" t="str">
+        <v>style describe bracket decade square excess trim entry curious destroy moment october</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x3Ea913A61D3da19108DBF3c547D6578E2D000D68</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0x546f52d2754042a09e1f4939c853add04c4c88c69d365dffc81d7a10a111586f</v>
+      </c>
+      <c r="C13" t="str">
+        <v>icon accuse robot square wait receive display castle chest during success enroll</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x0Cf31c6361f9cfA989cEc90a80Ce1069A92EDc12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0x34b9fb8a854c099ae56d088527dd1834934c98ef8304eb5e744e217e12acf56d</v>
+      </c>
+      <c r="C14" t="str">
+        <v>keen year rail donor autumn fossil picture oak able rapid quantum puppy</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x9A91646B14B09C402cC2955324c94dd64c4dDD1f</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0xb9d0b96995a28d18190c45b7abf786a5f41870d173a0e919edaca32ac20e17eb</v>
+      </c>
+      <c r="C15" t="str">
+        <v>trouble receive own churn exhibit fix pelican toast audit roast boy taxi</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xD2A126D9a92BF5884c0847378D56F5d4f326f24e</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0xcf1d075ee4e043be878413c2d645d550ba1577d140669efca633019be287226a</v>
+      </c>
+      <c r="C16" t="str">
+        <v>farm sea snake off shallow verify aerobic differ surprise pen chuckle claw</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x5711b379c9984656F70B03e622e5CFe84e5E7109</v>
+      </c>
+      <c r="B17" t="str">
+        <v>0x54456759afee26dc7d5d28f043d506893cd6d3eb09906b5a71175c9fa806573f</v>
+      </c>
+      <c r="C17" t="str">
+        <v>turn angry federal swarm bamboo siren enhance erase grow eagle fee olympic</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xE8DBA10473b5e57bCaADA76d22aF414A0A49710c</v>
+      </c>
+      <c r="B18" t="str">
+        <v>0x8debc51768218e68845e8c0b067149a3890527c98a7f2477be8baa7e27b50dd1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>sound soup shove gravity lobster fortune wrist clerk jewel birth try bronze</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x1E0D7c7885F3B5d554094CEe4BCf3F7Ce7eEb0D7</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0x4354d8c3ac3f49d6504c3654901b59b37c1154ba54ee26be2b62f34418683cbe</v>
+      </c>
+      <c r="C19" t="str">
+        <v>divorce giraffe defense oppose excite ignore onion produce icon hedgehog embark trumpet</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0xb9357eBcb5e7f679ac29252723b27AB081adD6D4</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0x16b80908259ea2e51f85b6b8be053c3d4aafe1206d6c65b00801e3e2042e52a6</v>
+      </c>
+      <c r="C20" t="str">
+        <v>grid mention lawn kangaroo any edit begin ship street dove ship unhappy</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xcC08A253b8da4616dceb7d52ACEa6396305D23ca</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0xe9db1674a751a107dcc47a5033325f2b8d862b9e79c7277b282d6385ee636d97</v>
+      </c>
+      <c r="C21" t="str">
+        <v>tiny crop harbor grace face labor regret olive glove later mother humble</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x365f3b9c277404FD9cF0cd75FBa3EFc39aa8FF1b</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0xd89adc8df77d8b735e11639d09fad8ebfebfdf50f86efd7caa7ba2af70e1e393</v>
+      </c>
+      <c r="C22" t="str">
+        <v>donor stay brass basic provide roof exclude spell world endorse raven best</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x659CD8D01bD3A78288cb03A17A48F22124834586</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0x340e582ab94c3d01f1c86b2b2aed3cfbbd7ac03b58c6dddec906ff5f7d479674</v>
+      </c>
+      <c r="C23" t="str">
+        <v>tourist unknown deposit only letter skill chicken grass neither inner help abuse</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0x21E5cb9504B27b8D79FBa5d04233D05440d11d21</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0x7a108d9f8f0f2f1bc105f7c0990bf55789a597be17968d7290d34904761392bb</v>
+      </c>
+      <c r="C24" t="str">
+        <v>heavy phone employ win story edge buyer jungle deer champion chalk tail</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x30F01a72E0C63f45d49b7D2b4aB5Ad35af07FB04</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0x083fda633e8e5959a46834921d93b362d5920c5035934b5ca2eb2be892fbe399</v>
+      </c>
+      <c r="C25" t="str">
+        <v>melt gravity normal child double essay relief brown leisure notice thumb quality</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x7F2317865D40600F37BfaAA15E415c5C57A4ea59</v>
+      </c>
+      <c r="B26" t="str">
+        <v>0x8c2dc3cf2b978a6964f6d051915de38e8026253e91fac87965bdc5a8882c8407</v>
+      </c>
+      <c r="C26" t="str">
+        <v>dove water celery betray agree aware ancient sing mention medal uniform involve</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xE12fEe61aF229E928Fe32Cd8706De1e000a42f4E</v>
+      </c>
+      <c r="B27" t="str">
+        <v>0x40d0d19d116a2175d71a6e3ff368e376731f79985d502afd7dc98de2909b67a3</v>
+      </c>
+      <c r="C27" t="str">
+        <v>wild spring talk time scene churn damp armor culture impact trim gallery</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x19e29e8E31D0FB40B49f59AE08BFcEd065eb46A5</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0x5ae85dd5e389aa2c4461ca7ed9f318502b2b33b38e9004a0802fc3d39309acbe</v>
+      </c>
+      <c r="C28" t="str">
+        <v>stamp fabric reason cousin laundry picnic flame dog latin warm fame news</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x74E3721C1Be15a4890f3aD8d154b46f793d66a1D</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0x453cfec56efeafae489bc92fa0a0ba9cd48c638ca29b346acf7ed5f246c5422e</v>
+      </c>
+      <c r="C29" t="str">
+        <v>mimic gadget still sea empty urban differ attitude select kingdom consider pistol</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xE365738a8e8b83F484931fC8697412ff48fB13C3</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0x072044d0214ac57e874bee0d77020b3f10b1f6863bd2f6cbe35d4fc020eeafe7</v>
+      </c>
+      <c r="C30" t="str">
+        <v>next play open believe prize detail prize rival spawn book uncle deliver</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0x41E38F858c3F08a4E28196612B6234d9B587CecB</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0x7b1e16ebbf5fec5fdc78e1809822a29a390185f0937f011d6161c708ddb9dff7</v>
+      </c>
+      <c r="C31" t="str">
+        <v>side quantum arch weasel random busy program elegant spider sign weather pool</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x87BC2E5527C403b782Aaa0756051B4DB17520985</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0x950c6c316a099609015f0d9966d60eafcf48253bbb98c2ad37f084567b0c174e</v>
+      </c>
+      <c r="C32" t="str">
+        <v>color essay six chapter cat sleep announce order rude twelve wrist fetch</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x0183ac256Ab1790816b30dDD58cAbC528ED21155</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0x62d40a9111248048d023f32ded95e6c66bf00c41f2c1b675e2ca2c320fd24ce7</v>
+      </c>
+      <c r="C33" t="str">
+        <v>web pond choose resemble bamboo sleep decide menu donor stereo slender tide</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x71eA094d7CF3eb3653b21c3bf75955726eCd65E3</v>
+      </c>
+      <c r="B34" t="str">
+        <v>0x549884c251d32e90a78ac64b43e30c5934fdeafeef11c999c7d8fd786d4a3d37</v>
+      </c>
+      <c r="C34" t="str">
+        <v>bonus height banana outer family universe voyage behave fat pledge riot kitten</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x8b99CdaEE1955322E31597cbA338A1dd380743f9</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0x007a86ed80c77bb4b9f626c247baaaddd7b9e7c289c16735748e3ff0cd76ce83</v>
+      </c>
+      <c r="C35" t="str">
+        <v>canoe pen grow lamp digital inmate settle duty else foam danger slender</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x50267C8eE762F2361002BD26CCC65065eAb83e30</v>
+      </c>
+      <c r="B36" t="str">
+        <v>0x5af362e4ee1f1fea50a71adb4dbe393952349ec80857f1d05bd0e0f949f28537</v>
+      </c>
+      <c r="C36" t="str">
+        <v>they spell climb topic rocket breeze interest foil banner section popular achieve</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0x9925D67B27Ea9D1708bC0B6c045555F836Ddc8dc</v>
+      </c>
+      <c r="B37" t="str">
+        <v>0x33b1f22bfa9b54e3fe5fd3b51ae53a15c2f03162d1c2dc1b8cb3218c5dd275e3</v>
+      </c>
+      <c r="C37" t="str">
+        <v>narrow month mix wink siren brother nerve angry high fetch saddle state</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x74F9AF5a4B5684Cf49a320C120fe03B7612D641A</v>
+      </c>
+      <c r="B38" t="str">
+        <v>0x16437041eaf2028cd6c92a91c541a92462326c93bb9ffecadf7694e79a0b930a</v>
+      </c>
+      <c r="C38" t="str">
+        <v>label truly desk bridge avocado final midnight fix rescue north phone input</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xDFDD374179B4C76f0e120299Bbfc9D6BE801e7E6</v>
+      </c>
+      <c r="B39" t="str">
+        <v>0x46ff1fce3db5299584d4d93a572a509dc0823276129452bb25b7146255eaea1d</v>
+      </c>
+      <c r="C39" t="str">
+        <v>case prefer dolphin jelly explain coast weather mutual traffic high clay erosion</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x8874844456422Ad23678eA58344E98a873c5Fa7d</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0xb6cf6e5cf48fac13d4702dd2cc07a1ccf9dac59fddd0adcb3a86fcd47245d7f5</v>
+      </c>
+      <c r="C40" t="str">
+        <v>crew skill talk item journey marine path used legend bulk welcome keep</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xBA292AACDe4Be4ac54912FA716e8a376641513c7</v>
+      </c>
+      <c r="B41" t="str">
+        <v>0x4735163066375c47b8e85d31ed9933c7b5a0f0f40d7ee72286914720ff1652be</v>
+      </c>
+      <c r="C41" t="str">
+        <v>age deal approve wreck boat version law force park history swing cross</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xA31bb73c1Bf2c91377EB482bF694c4DA665A3bA0</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0xe388b8c43e21bc2679f256467275df93f1ead10134f4ba1d06d573bc5959e05e</v>
+      </c>
+      <c r="C42" t="str">
+        <v>aware century initial they syrup birth rescue this danger virtual laptop window</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x9F3e5DEf265bF1308358E593E6592a6404fEF843</v>
+      </c>
+      <c r="B43" t="str">
+        <v>0xa9cadf9291ea4a1ff26195c7a37313d999d437e3a128228f7b4c3a1488ece688</v>
+      </c>
+      <c r="C43" t="str">
+        <v>small business awake grass gold motor still reason resemble recall leisure nature</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xe0519A4679894FdbcDf60039E47749e44D5230fC</v>
+      </c>
+      <c r="B44" t="str">
+        <v>0x3dfa1e707a9b07c06b83b8eb36f399758a0edef87ff2caafae3c7bf54c789744</v>
+      </c>
+      <c r="C44" t="str">
+        <v>rail rapid lion gate twice region helmet food style various judge border</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x5cE47e489b6713A2118DfaC98b1AcEd91192516F</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0xa72bb6bdde756c6b7876df7d6fb2750637f0886e93e268a4c997ff9c2113e113</v>
+      </c>
+      <c r="C45" t="str">
+        <v>evidence diary slide captain order kidney build pyramid write gain priority lonely</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x4AAD86AaFA3eBAC0913B4b57855C1f605CD2a82c</v>
+      </c>
+      <c r="B46" t="str">
+        <v>0x7c195ce007c3b76b00935f66ab2548ba3e92c7dd976dc331fa75a31463c313b0</v>
+      </c>
+      <c r="C46" t="str">
+        <v>noodle mercy history myth mango wheat tumble chef kite minimum manage laptop</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xC7Bf78b71fc3FB4d25d24999D527e78CB4808335</v>
+      </c>
+      <c r="B47" t="str">
+        <v>0x004b0bb163c1f33d6312c6e379d413cb8e8452f1cbe1a3ac6b18c63a84c42d80</v>
+      </c>
+      <c r="C47" t="str">
+        <v>brown annual whisper comic edit lizard rug extra pause ask adult behind</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xe19F62df32fAEd440360a091e5dC933298FA4f48</v>
+      </c>
+      <c r="B48" t="str">
+        <v>0x1ee2c36c69b1722d5a5ec7072f5589979d9cf981224486ffd1ed3c0e5b93a18e</v>
+      </c>
+      <c r="C48" t="str">
+        <v>echo act coffee pelican viable ski pigeon love attend flower mother frequent</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x698242A9127Fa7d154DB3Cee11DA4dE32Dae703d</v>
+      </c>
+      <c r="B49" t="str">
+        <v>0x28c90c5e5c6bb187fb7c46f86c519f1c09d616f12b0c2175631365a4bdadb2a2</v>
+      </c>
+      <c r="C49" t="str">
+        <v>patch just skull bargain snap leaf discover until half direct legal chunk</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x6E9653bF2F63c52056Ef7B7641aF3bb53EAC920B</v>
+      </c>
+      <c r="B50" t="str">
+        <v>0xe6cfc1614766632b1417a894c667dea9127430ea636188bc34a3cf83230d120f</v>
+      </c>
+      <c r="C50" t="str">
+        <v>never museum gentle now february volcano clip opinion nothing drum away cover</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0xDB9Fd263B02565aE4c5fAeA2B5FeD3908c177228</v>
+      </c>
+      <c r="B51" t="str">
+        <v>0xccce60593b33a2fc0fb4246eebe3f7025fc30d0bd0e95bb1fce1eaa6fa99f62f</v>
+      </c>
+      <c r="C51" t="str">
+        <v>curve galaxy stand life birth patient shallow crawl almost lucky drift shoot</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xCdeeB372C9Fa26Cbe5cde00E4dfa8f09C2F7A8F8</v>
+      </c>
+      <c r="B52" t="str">
+        <v>0xb4af7dcbce2b9c7dc6bb8bca0dba44fb5b9b061a3d2ca24d398389b98ef5b76d</v>
+      </c>
+      <c r="C52" t="str">
+        <v>orphan glove marriage crumble wing water trap embody group exact service expire</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0xFafF43d65a5d6651E7756B1689252E02E97B920A</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0xedc4e4b6d61aaa059de5a9306ab01407df3c77543ac49f9cd951b31093657224</v>
+      </c>
+      <c r="C53" t="str">
+        <v>wood tissue van balance note dog smooth romance surprise delay current video</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0xC1a3cDEadFd4eA686f44dBeF96Bf1c50bc83dc84</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0x1f03b666c83ec6f97c7aff0ad5749e356d37b1110b4976a3bdfc4c76437d9db1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>dismiss modify lounge provide garlic kid manage bread curtain history cover float</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x3F0FcC2fC1794ecB5715584e6aC67E7Ee2c5ea7D</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0x50130f6cb7a61694d067ea61e6790288ce304c6a8f4599fd2e344673420d0dcf</v>
+      </c>
+      <c r="C55" t="str">
+        <v>slice invest furnace initial lunch quantum addict steak layer drum vessel black</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0xaaD45589A6027460c7a481b82744a270726eDa9f</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0x2a9951cba1b98a11671f013b41103477944f33f4121067bb809816d7f850d41d</v>
+      </c>
+      <c r="C56" t="str">
+        <v>oven wonder warfare believe lounge nurse cluster robust fine vast dad possible</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x0C0Db5502f88f268c1FD5D3078872744eD3EF15C</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0x3ead94d04537de7bb11c64b3d5a30c89c4da60fc477f9d659fa3404fe0d3a191</v>
+      </c>
+      <c r="C57" t="str">
+        <v>mutual floor fire situate silver promote throw dune quality fit timber pottery</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xA716707a0B4F38a05403589c1cE4B8336ceE07ba</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0xcf583614d9f4d7271dba0ad55f570eed1382bc063e5d3cbbdc1e9f08ca313553</v>
+      </c>
+      <c r="C58" t="str">
+        <v>verb bonus crush ask grow dolphin teach club jungle bunker tiger green</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xFCe8be39b2788CD4f8E3687F8D012Ecd9Ceba8D0</v>
+      </c>
+      <c r="B59" t="str">
+        <v>0x465fcaa6222e2851a618c5d4f0ccc3d147f0a691dafb984ea403c2c0cd7058d7</v>
+      </c>
+      <c r="C59" t="str">
+        <v>angry update bring august taxi device swallow crew opinion tell runway either</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0xb51b03B36A3a5CbbBA5A936299aDD9E8ce83C0Ad</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0xedaaf4e5ac87f0b5e6c6c3ca8dd4ba4f6e831ef240a4257cf9fe25c5434768b5</v>
+      </c>
+      <c r="C60" t="str">
+        <v>job develop shadow perfect grow other assist thought birth thought lend taste</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x62d3BA19C91083B08bCf550acbD13b62eAD5A185</v>
+      </c>
+      <c r="B61" t="str">
+        <v>0xbd4e333aff70f34d91e066debacf67e3792274d0dfb5838693a00c8c99da559f</v>
+      </c>
+      <c r="C61" t="str">
+        <v>gun mom diagram carry snack sunset knife accident today stamp forward wrestle</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0xbEa8Dc60e67246554a133a494566f697eFCa8c99</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0x5dc59c34fb6fceb8472e89c2609d02f58b1c3608812e1e4a6b0d7428d795bdda</v>
+      </c>
+      <c r="C62" t="str">
+        <v>boring behave debate oak love suggest elevator exit proof warrior tongue once</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x46f3a39aE3cfd5EC0FcfabA59A73D237e6128d3b</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0xd6d24bc2a316d144e794f68b29faa25c51849e949a41c7e3a2e77cc321bbd23b</v>
+      </c>
+      <c r="C63" t="str">
+        <v>prize slim maple poverty exist tragic labor east mobile smart until produce</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x61BEaFa964aAA1EF83cC7e1454478023DeaaD2d8</v>
+      </c>
+      <c r="B64" t="str">
+        <v>0xc29c53445d3108938eef56680630f29541dbf82aa4cd903684c1503bf2b4d8ab</v>
+      </c>
+      <c r="C64" t="str">
+        <v>seek round poverty crouch hint insane unfold fly pottery true runway measure</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xB1F2Ff24ac79c364Cf47B83186A3A4F94a10DE61</v>
+      </c>
+      <c r="B65" t="str">
+        <v>0xe23ea1595de5e236d4d37aca613348871032dd2080a0cd0c3d0f60f27191be40</v>
+      </c>
+      <c r="C65" t="str">
+        <v>urge dawn ugly powder bounce owner such remove suit wage quit cherry</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xD1cc3a67b492f83cf33d7F35fa1E9296f4ff5Fc8</v>
+      </c>
+      <c r="B66" t="str">
+        <v>0xe135298f3549232cd1c7d1999d60ad37a1e63ea693664b80912d37cb348abf06</v>
+      </c>
+      <c r="C66" t="str">
+        <v>person margin coffee purse topic prepare jeans lady recall civil mail ghost</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xAC0dCeb08F36E12760c1bDB8d0c19b0Fd3aD2a97</v>
+      </c>
+      <c r="B67" t="str">
+        <v>0xf3e7573e71daa304bdc2acb382dc8e1fd8e0c45ee36c593158c438d51e3d0e89</v>
+      </c>
+      <c r="C67" t="str">
+        <v>drip double holiday impact best cube tourist abuse remove paper sight female</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x592295aC08B24370F8805ECBFdbbcf7033Aff59f</v>
+      </c>
+      <c r="B68" t="str">
+        <v>0x52e2121b0e02e14f2b4d1d6fe17ef9cd42110edb26d41bd5125e9950cd1d1a8e</v>
+      </c>
+      <c r="C68" t="str">
+        <v>effort subject sword vocal carpet movie faith ozone believe rent echo please</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xdB24B8A40A49ce43fAd7Aca93405D2B8E6c8f6E1</v>
+      </c>
+      <c r="B69" t="str">
+        <v>0xa3549e464cb6b2767c7a127d999ff9948509c93c7f0653f9dafa8b25f82bf542</v>
+      </c>
+      <c r="C69" t="str">
+        <v>brown punch noodle wet lens spoil high spike reject spatial elephant polar</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x4Ffac90A7821A49E9c621Fa4E2c0DeAa10765E99</v>
+      </c>
+      <c r="B70" t="str">
+        <v>0x0c50d344190f00fea4bbda63d4e0a2ab2e4b06e5d322f85b7111f3d130f768e9</v>
+      </c>
+      <c r="C70" t="str">
+        <v>away spare pride bus fabric mountain finish coyote jewel bubble picture coin</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x4B5D002E5134B5Dcd609366fDE19D3860a593fC2</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0x6f857cfad6abd1a4ff0ccd736d9104fb4138d346852a873542ab24b4293fdcb5</v>
+      </c>
+      <c r="C71" t="str">
+        <v>leader antenna orient media mammal depend address ahead pelican output media fortune</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x96B8A9dB08FdC120FAd6Cb2C58510Af4EB40B6e1</v>
+      </c>
+      <c r="B72" t="str">
+        <v>0x8e7f94515481b077a1532dd07e7bf8abf6692f335d3212419f343a8a1233d85a</v>
+      </c>
+      <c r="C72" t="str">
+        <v>usage build book equal yard advice liquid novel napkin unit model correct</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xC55387cfd0DabBD9e1a4aF6A8eE67c28041Ee46f</v>
+      </c>
+      <c r="B73" t="str">
+        <v>0x232f7c0ea839e6d7c26f7f72e6d11cb6808ed9cdae7c5b59c6db36a7210b2256</v>
+      </c>
+      <c r="C73" t="str">
+        <v>way affair jealous position hurry season town boil charge height tuition truth</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x890aA2420956f026804a26e6E50653Ed7fc046b1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>0x27c489288ebfd7c765be98374d5de3e6df642b13577f59abef1e7dbfa4c38811</v>
+      </c>
+      <c r="C74" t="str">
+        <v>elder renew stone double warfare someone hockey trash license canal blame much</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0xC546714035AFA64e9f103897dE3275258291309C</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0x01c2a881a8cff3a20c0edf823fa8394a83bb449dc10ac4380e3f5f5ab027459c</v>
+      </c>
+      <c r="C75" t="str">
+        <v>either library typical hat vibrant clinic return swing sail buyer control amount</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xBDedeb57d6c1Baa5e8CecBe80362948862d6c96d</v>
+      </c>
+      <c r="B76" t="str">
+        <v>0x95f583ba9b22cbd65ffa1f4b97b4dca87f60c612764c36928b1835990cabf552</v>
+      </c>
+      <c r="C76" t="str">
+        <v>recipe turn humble lunch drama slab win pretty chest accident wink spawn</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x3B96EF905385d688308f7ceb9ADEA9aCA0E05e2c</v>
+      </c>
+      <c r="B77" t="str">
+        <v>0x76855e90e3d0264f731bfeecaf73218dc839ccccd7187b173cf3708b6d3f4b65</v>
+      </c>
+      <c r="C77" t="str">
+        <v>dynamic seven arrive knife holiday letter glare session fragile swear scorpion rocket</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xf2a10584406Bc87d7c2bE52898a692299837908f</v>
+      </c>
+      <c r="B78" t="str">
+        <v>0xc4e365d01af4b4dee62bfbede92c45ebfdd2f478a1d519a9c90b5f831621306a</v>
+      </c>
+      <c r="C78" t="str">
+        <v>universe upon skin come stone ribbon buffalo battle into town exotic prison</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0x603D7bB4821432c377Eafb12f4F969F705C53E34</v>
+      </c>
+      <c r="B79" t="str">
+        <v>0xd8f67dab982cc4b9ca324e799c22eb494b8b85f5c4539ee499b7d468406cb0b8</v>
+      </c>
+      <c r="C79" t="str">
+        <v>hotel afraid dismiss surge purity robust tiny reason advance elevator heart acquire</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x04221f91bC42897C491A11ba160F8DAcDb38E671</v>
+      </c>
+      <c r="B80" t="str">
+        <v>0x9247d85947928c034a237c8dda76853364bca1451faca796aba3a018973c7778</v>
+      </c>
+      <c r="C80" t="str">
+        <v>siren solid present dream certain future exile glove inspire custom toy actor</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x91eB2D0ACba7CE81CE7C6549121Ee603fbB2A8FC</v>
+      </c>
+      <c r="B81" t="str">
+        <v>0x471d81e357bf8fd3cbcaad9aece1fcc3de80a04e8053fc0e3c979b73dcd86887</v>
+      </c>
+      <c r="C81" t="str">
+        <v>anchor champion toast copper water dinosaur divide diagram antenna unusual hunt winner</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0xbFd9763DDB85693DC6A882Fb16232F1a9107CDC4</v>
+      </c>
+      <c r="B82" t="str">
+        <v>0xd45fc00d19e45c6f779de0e6765da559b74edb6d0578d4e1b3a8cd1dea146e6b</v>
+      </c>
+      <c r="C82" t="str">
+        <v>bulb diagram spare train bleak panic muscle jealous wife rain lemon distance</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0xB2bCD257D58f9C7bcBC29A1477c7e8abaB6F5436</v>
+      </c>
+      <c r="B83" t="str">
+        <v>0x5a3812375a053dfc80c055be2381a1b3c05714b94b7fe5bd1cde001d165a9967</v>
+      </c>
+      <c r="C83" t="str">
+        <v>street recipe candy action stairs viable curve public camp assault number army</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xfddB38a94529202Dcc044E8cD07f49dB785c7030</v>
+      </c>
+      <c r="B84" t="str">
+        <v>0xcd705dbd05b4fd2feeedf79e9f15f961125fea3b40722615427f67979aa39a0d</v>
+      </c>
+      <c r="C84" t="str">
+        <v>brain interest genre laundry razor now vocal angle head until busy aware</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0xb9195EaAA9153ae8A7Cd0208102bc568c6d94fbD</v>
+      </c>
+      <c r="B85" t="str">
+        <v>0x4d198085c405e91f6231bd2ec6baa668361326a3c8747c87f5a741799285bbdd</v>
+      </c>
+      <c r="C85" t="str">
+        <v>conduct exclude provide strong kite convince feel medal runway robust bargain leopard</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x7b012145f4B926f3Ef3a860452C49f89cb4fe4cb</v>
+      </c>
+      <c r="B86" t="str">
+        <v>0x376b2b2bc57e1a15bb2dcfdc5c69535dcf039e6ebc7307a1e5debe65025b5e69</v>
+      </c>
+      <c r="C86" t="str">
+        <v>claw cat view mandate evidence ignore leader because trophy pigeon foil wink</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x40B6D8b013480cAc3B5CE42c91949b1B2dDc5522</v>
+      </c>
+      <c r="B87" t="str">
+        <v>0x776ab89b909c25b4e3321047d42e2feb09508937274027f471900747c957823c</v>
+      </c>
+      <c r="C87" t="str">
+        <v>invest sure frost spirit company faith humble maximum cloth pulp ready ancient</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x7607854a09E9f14e1CEBda535434FdB87cd9756b</v>
+      </c>
+      <c r="B88" t="str">
+        <v>0x0585eea7272e6a7df3583f85bbe865f4bedf165aca68791fd76a23802f30e754</v>
+      </c>
+      <c r="C88" t="str">
+        <v>magnet table obey resist creek remain text green fog away behave jaguar</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x06Cc160AC129857cDF4671d7AA0e17E10E62b96B</v>
+      </c>
+      <c r="B89" t="str">
+        <v>0x18fbab03a70574e57229acf3570d9b80adc8e6ec23e6cd11318250b62ad5d5d7</v>
+      </c>
+      <c r="C89" t="str">
+        <v>chimney inside twist critic feel bar office typical strike spy wire crime</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0xDfbFBc40Ac80e1e2f8A5CAad46c76F3604fa394D</v>
+      </c>
+      <c r="B90" t="str">
+        <v>0x8d686da6eb31a1a35d17f27b29243af3bdc8c3a5a85ce9898c43833a3f1a12ad</v>
+      </c>
+      <c r="C90" t="str">
+        <v>magic finish injury avoid switch marine predict hungry tribe post book liar</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0x6b8B82347CA940b7313C9EEefBe9bc3b22e75922</v>
+      </c>
+      <c r="B91" t="str">
+        <v>0x9be9fd369670964246814f79cee2217a298ac114c3af36bcbea5d8c94a75bf35</v>
+      </c>
+      <c r="C91" t="str">
+        <v>journey bonus lizard theme cram nerve taste crop month below give square</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0xaE4A086655633Ff1815c3F6DdcC5309463Fb5c64</v>
+      </c>
+      <c r="B92" t="str">
+        <v>0x42840faf61d2621e20b992a785d20265b53ae58fcef5d69faf87c2d01246c66b</v>
+      </c>
+      <c r="C92" t="str">
+        <v>later true turn amazing climb physical topple champion drop guess silent invite</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0xf4168c7112786caB830f8a0DBf70A53Bc284C19D</v>
+      </c>
+      <c r="B93" t="str">
+        <v>0xe790e3998364065e3b96cf87c45db4988c09a6eccfc99a823240ff13ca4e21b6</v>
+      </c>
+      <c r="C93" t="str">
+        <v>grace poet vital chaos salad adjust gas tent stove argue mask expose</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x101f1236585c2BA4e163f4cb95AcAd3746042cad</v>
+      </c>
+      <c r="B94" t="str">
+        <v>0x5f6c8d195f6d438940347e1c2c5e78f4b402fc40285a1e00a51233c049243cfa</v>
+      </c>
+      <c r="C94" t="str">
+        <v>decorate course apple social cruise brown situate plunge gentle wide exercise come</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x74179258d85927c384f5CF16826426C51520e223</v>
+      </c>
+      <c r="B95" t="str">
+        <v>0xcf7b763546fdc2b8c557051a588d0c6e666f1126e808f363dff5b19dd3fd7751</v>
+      </c>
+      <c r="C95" t="str">
+        <v>sunset table fetch woman reason alien ride seven boost state expire wall</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xBAbfF8110EFC33E5f928714A35E2556Ef28a3BcC</v>
+      </c>
+      <c r="B96" t="str">
+        <v>0x44f513617426ba81f7459933e2859a01025d1409f174757abc7e62f59ff339f1</v>
+      </c>
+      <c r="C96" t="str">
+        <v>loop fine hip lawsuit couch solution box enact dilemma hobby fuel wire</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x95E43B470dE2a940D306c1aae2aaFC2ebE748082</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0x245ee6a970f3c1eedf4a29369b4aaefa9ac707cb6879df31b557eb6bc13f5f8e</v>
+      </c>
+      <c r="C97" t="str">
+        <v>toilet render beauty flame submit list vacuum dragon better caution grief use</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xD280Db16c1509F391601bf6cb5811df091FB9c31</v>
+      </c>
+      <c r="B98" t="str">
+        <v>0xc5b5b25c53296f9f75af6f3a9714282de821733979991046b18b07233c91db7d</v>
+      </c>
+      <c r="C98" t="str">
+        <v>enhance flat orbit light annual soft bunker arrange adjust desk still certain</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xE11F5f11DaAd253218F65d56A4E178AD2ce32b88</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0xc7313438184276f4795bb74873e52a6347a59f43fadd319275f43573df5cf540</v>
+      </c>
+      <c r="C99" t="str">
+        <v>improve maximum village soup gun degree hybrid frozen label size mystery cricket</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xAC3Aa79f16760d73fF655029C88D5C25418Bfb53</v>
+      </c>
+      <c r="B100" t="str">
+        <v>0x760a0b9b21e3266381d11465f6c0e84934203ff5314269f835ac1bd049d28a33</v>
+      </c>
+      <c r="C100" t="str">
+        <v>gym dash escape insect inflict crawl drift tackle other pull occur famous</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x95110a5EFf5ccE25De8b8bbfE1Ff3416175fF954</v>
+      </c>
+      <c r="B101" t="str">
+        <v>0x2988b15cad6edb2faa6e81da6085041695844d24b689f718a31a43343a886c35</v>
+      </c>
+      <c r="C101" t="str">
+        <v>throw sick little siren urge finger educate extend blade ticket about acid</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0x3e2d312BF85D3770cecF0625fd8480377ccc5E17</v>
+      </c>
+      <c r="B102" t="str">
+        <v>0x22d22a002d944dd0ead6c0b58046d396d3be346462a886e3db7b2e9a3bdb3717</v>
+      </c>
+      <c r="C102" t="str">
+        <v>there rate rough jealous travel problem brain ramp sentence fantasy casual then</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x796e3D968c534AEa91D123B74E6102fBAe908353</v>
+      </c>
+      <c r="B103" t="str">
+        <v>0xb8f6df72d844f66782d4d180323f73c3d5c2a3d403cdc4ccceff92455f84e86e</v>
+      </c>
+      <c r="C103" t="str">
+        <v>indicate ripple festival jazz gold salt parent pole forward holiday spy gesture</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x8Dc1B4b91E83F8b67b64eE59B6bCbC572DA005f5</v>
+      </c>
+      <c r="B104" t="str">
+        <v>0xa8bc75825383bc730f6198d1b449f38588b147ef42a32daa991c88622b472fa8</v>
+      </c>
+      <c r="C104" t="str">
+        <v>all scorpion claim horse slam glide lizard finger before master narrow among</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0x6DfBe038E21445C8AD2bb750F078d82D7493e5AD</v>
+      </c>
+      <c r="B105" t="str">
+        <v>0x19f1d1a162449f2e21cd70d7729a75de577233ae354eed394a57fde2fb1ff131</v>
+      </c>
+      <c r="C105" t="str">
+        <v>lady section custom banner wire edit engage north fiber human glare describe</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0x2DD279DD293f219b4779f7fDaf7eF9501b570A9B</v>
+      </c>
+      <c r="B106" t="str">
+        <v>0xdd805c557eecb6c697b744686961ea9bcc7a775f330f99e5615193b63fd45282</v>
+      </c>
+      <c r="C106" t="str">
+        <v>cupboard heart uphold edge industry violin token reopen season before like alpha</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xA6bE7165481c515F0206e8a214d96d377d284813</v>
+      </c>
+      <c r="B107" t="str">
+        <v>0x043a33ad8f79610917f0e566ad80b588509cc39305dd05f77e36116786a645cb</v>
+      </c>
+      <c r="C107" t="str">
+        <v>feed merit swim margin bulk taste derive initial balance joke outer inside</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0xc8a81d452dE389Fa71E3f8A2c7025d134838a6B7</v>
+      </c>
+      <c r="B108" t="str">
+        <v>0xddee2428952466bf6fa958212201f1aa943381b16d0a2ea4b0e80ba78a6b555e</v>
+      </c>
+      <c r="C108" t="str">
+        <v>either prize alien rotate harsh question wisdom night iron maple phrase weasel</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0x95EecDbafFf508b70A33f6406B65E5a1e9c0C7a6</v>
+      </c>
+      <c r="B109" t="str">
+        <v>0x715d6150414ca7fc8ede46fea5c115c9d66e0c486e4c149f7f77ec3c53b4db79</v>
+      </c>
+      <c r="C109" t="str">
+        <v>popular play bind knife cruel caution swarm odor nut festival bean grief</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xA7FD5f3b9fcf30c8ecA7b5B573c0FAC3F18803F8</v>
+      </c>
+      <c r="B110" t="str">
+        <v>0x2467834af727380c09b58703a626ac2965deaa36e7e85077405808f9d162ec35</v>
+      </c>
+      <c r="C110" t="str">
+        <v>problem tomorrow true ecology dust over push solar dad old copper outside</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xc397f4c55798c87DbC62d8eD68A83DB67a85b013</v>
+      </c>
+      <c r="B111" t="str">
+        <v>0x01086ca1a556ff105a642b7f7b17453b8541b66228492296d7ff10918615fbfc</v>
+      </c>
+      <c r="C111" t="str">
+        <v>ribbon nerve topic rally obvious athlete copy exhibit room twenty absent nature</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0xAaf913f1A0b79D9B140e27ecB19a2Ec42d48Edd6</v>
+      </c>
+      <c r="B112" t="str">
+        <v>0x1a761742f9991059e184b40fb42f372fcf988cf7ed951a36c7a21c28a1c8d8e3</v>
+      </c>
+      <c r="C112" t="str">
+        <v>wink stadium ladder mansion wish spray poet almost sand random dust disagree</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x9CF4fA8534568ee7984096a7722131c5916831dF</v>
+      </c>
+      <c r="B113" t="str">
+        <v>0x54b53d3806c4d839fc3c04bad92a5baa294ec276b26600ef1ccca2742a88d9fe</v>
+      </c>
+      <c r="C113" t="str">
+        <v>trim pistol hockey foil unfold fan broom hybrid dinosaur require mammal fly</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xa34fE744eA408fE94AeDF99ED0a133521C3FFC86</v>
+      </c>
+      <c r="B114" t="str">
+        <v>0x5f920d6bb14a5c29042d72a6a953cfdfd3e53a7d35654f26b4aff7db45c95f6f</v>
+      </c>
+      <c r="C114" t="str">
+        <v>acid foot camera icon recipe wash bread dinosaur service nose chief vehicle</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x3C22Da682930592e1A492D44993117956e7d290C</v>
+      </c>
+      <c r="B115" t="str">
+        <v>0x9702b45fd0608328c2a91d84cefa36e1c0dbfd6e94574a013060769d88d54c9e</v>
+      </c>
+      <c r="C115" t="str">
+        <v>gloom will pulp round trim wish habit car rose flame share oven</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x08F6a48c5F7e76c107C1D40527a1b456ef4bD6d7</v>
+      </c>
+      <c r="B116" t="str">
+        <v>0x6ef8e814ceaf5cf02676a7a29fac95ddfc741c6c554c6fc85b56b38ad2b6e7e3</v>
+      </c>
+      <c r="C116" t="str">
+        <v>pole vital question because scrub town tonight marble baby dog swift able</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x1FdC018505714624A3c23C94983002D39B79BC69</v>
+      </c>
+      <c r="B117" t="str">
+        <v>0xa67c4ea4c84b36f4fed3efc89ed25b9643d300556286d3a21821b2d25d76a3c2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>theory vintage leisure cluster swift fruit owner young room discover purse oppose</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x0106DFF06A9eD8B608450bC7336B5D5B98fC9fd0</v>
+      </c>
+      <c r="B118" t="str">
+        <v>0x5c80657f55117308b087de74698607297b0ec57ba831280acc27706327318661</v>
+      </c>
+      <c r="C118" t="str">
+        <v>dizzy wash physical spoon lucky labor title digital vocal lens then choose</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xb3093cDdb5398B748B9F3C5E402c28fA9200a9D8</v>
+      </c>
+      <c r="B119" t="str">
+        <v>0xdc7836cb602f11abb61c9fe9e7e238a5b8333688366676825f8a528bfb62c40c</v>
+      </c>
+      <c r="C119" t="str">
+        <v>admit volcano club task phone second used melody exile winter omit chair</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x5F02F1454A1e28Cc39E27Cb9E8a174831A992e84</v>
+      </c>
+      <c r="B120" t="str">
+        <v>0x7d8a8e3ae0eb3b617efbe98631971775cb35eb2ea49acfc758d083cadd99ef3a</v>
+      </c>
+      <c r="C120" t="str">
+        <v>route comic umbrella kiss shield image blanket ancient lend knife alert double</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0xdBb4bbFaB57c789D0F2281e6FEb18C868b305085</v>
+      </c>
+      <c r="B121" t="str">
+        <v>0xed0fc6e203c356eda2aa0a45e9ed794cacc71c422236e777585c30354fb59b10</v>
+      </c>
+      <c r="C121" t="str">
+        <v>ecology trade peasant among light fly pumpkin duty stamp certain peanut medal</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x2F3aC22930b761434D5209A3A269BEE93Db3cFfD</v>
+      </c>
+      <c r="B122" t="str">
+        <v>0x7617ff238dff3f6671c435405fd65b7e4cdc700a116f2bb9ebc6f69b937a348c</v>
+      </c>
+      <c r="C122" t="str">
+        <v>true hawk agent captain until rule cool elbow vanish caught exhibit devote</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x7C8ee4606667Fd41ac593b6138991311CEeAdcB6</v>
+      </c>
+      <c r="B123" t="str">
+        <v>0xa15aaa7607e5f5c63c394ff87e6b98a5974124b3ba50a48eb8507469214a8153</v>
+      </c>
+      <c r="C123" t="str">
+        <v>usage six eye leaf want glad believe purchase blood cotton label recipe</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xa34b4fdE8337d59A1cBB67aA763c5fD2F038450D</v>
+      </c>
+      <c r="B124" t="str">
+        <v>0xf4bc40c0d6ed8310e07e0a71bab578e6f014ac76a027f23e187383480c00a27e</v>
+      </c>
+      <c r="C124" t="str">
+        <v>hundred select wait spray apple time violin afford item inflict bitter enrich</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x8dF06eED1B439A52Be41D04974B79ff5B1573a55</v>
+      </c>
+      <c r="B125" t="str">
+        <v>0x02ca3a79cbd6d169a536004acc051d64761b7c75c30e9b35666e2ad7137f5e28</v>
+      </c>
+      <c r="C125" t="str">
+        <v>isolate diamond winner into bulk cluster twist pact plastic solar chief win</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x855dF1d05479227BcB898356255D6ba4383322BA</v>
+      </c>
+      <c r="B126" t="str">
+        <v>0x03f52427618788f4f28e5a99df7a2e3a34927d4ff5bfbbad5e2dba1f329659b2</v>
+      </c>
+      <c r="C126" t="str">
+        <v>problem tragic divorce risk combine humor educate phrase mercy pulp bar slight</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x055dcF8045bBEb0F388415316a87d0a4aC7763Ee</v>
+      </c>
+      <c r="B127" t="str">
+        <v>0x43fe9251c3a0c3eb9003ff96227d17cf6ecb5b749870077b8364d4acd9bf1a70</v>
+      </c>
+      <c r="C127" t="str">
+        <v>avocado sail future menu burst lizard aerobic lazy taste brisk abandon flock</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0x31699bf965d8f454E46e78bc5c8FDac3303859Db</v>
+      </c>
+      <c r="B128" t="str">
+        <v>0x6de7100053a158c2d7f54c84a8be5aad25a38cac9bbd5e01e494adac7e9b789d</v>
+      </c>
+      <c r="C128" t="str">
+        <v>diet churn switch tomorrow purpose around urban design conduct canvas force gate</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0x23dBfB59A86f17798BA8881514260f72f5fd8706</v>
+      </c>
+      <c r="B129" t="str">
+        <v>0x3c91c27ebf5d68f12fd047cfe25b2e5d44cee080eb8d8e73910bf7b5af0a2a84</v>
+      </c>
+      <c r="C129" t="str">
+        <v>garage aware protect various return find sun fiber dinner place prefer liar</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x78774E907BbF3002CcD01bEC53B1B31034Fa5C4E</v>
+      </c>
+      <c r="B130" t="str">
+        <v>0x447bc8a36fe9b62d1b462f342a52845e35a8e05c42f8fa72a4bbedf8584ef304</v>
+      </c>
+      <c r="C130" t="str">
+        <v>license wide parrot subject never surprise castle large bulk uphold sing income</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x089D39Be41c22F4C69A1317B38B21227dC54d894</v>
+      </c>
+      <c r="B131" t="str">
+        <v>0x33b67581976c18d33ae6f8f119ecb7f705655696ec138ec0331ce5450166cd5c</v>
+      </c>
+      <c r="C131" t="str">
+        <v>spoon merge state guilt genre torch flip verify snow empty nature vague</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x961EA7217B7193A6CAB123d772D001d16c5D942E</v>
+      </c>
+      <c r="B132" t="str">
+        <v>0x901dc42ded521737dd4404b9018edd0d5cf1667ccdfb24722eb577b78cf9a86b</v>
+      </c>
+      <c r="C132" t="str">
+        <v>cliff black version rate legend flee fiscal frown harbor cheap casual ensure</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0xE4491b71E1B2EF18ae6da1C494DA7cb4cD2311e7</v>
+      </c>
+      <c r="B133" t="str">
+        <v>0x762cbfac32101be16c127c5e8d9d7eba0896622c9d016fcabb8de6b20fc0809c</v>
+      </c>
+      <c r="C133" t="str">
+        <v>double govern prison fruit stage walnut marble vessel segment quick curve frost</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0xab1B882865F7A39447a19e90ABEd8204d6B1D321</v>
+      </c>
+      <c r="B134" t="str">
+        <v>0xcbd79bf57aa8047872986d3cde8788a3bcc84f2ec592930ea80c249306a804bd</v>
+      </c>
+      <c r="C134" t="str">
+        <v>kitchen fun clock multiply tobacco pottery update bullet tide pipe twin chef</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0x6310e6f4A43F1B26fE5CE30c6c6D0111679941bD</v>
+      </c>
+      <c r="B135" t="str">
+        <v>0x5a8081d78ed4dd3d782a507ff66d4f018b811ccc2eb1e544d7a337b9dcb45905</v>
+      </c>
+      <c r="C135" t="str">
+        <v>razor security sleep stage grape umbrella squeeze yard wash wheel lock letter</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0xC895F9daD5D835B9188265e37CFF7dE68E23b337</v>
+      </c>
+      <c r="B136" t="str">
+        <v>0xa764b85323a8eef67af283b91228317bdfd4b9be2daee7ce0661039559833e08</v>
+      </c>
+      <c r="C136" t="str">
+        <v>eyebrow assume evil prize lazy uniform milk master rain again crucial derive</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xb35A5BffEA387dce6Af681A53FDDaA9FE77E096C</v>
+      </c>
+      <c r="B137" t="str">
+        <v>0xa5c3907f1e831e097010ddd7207f7670018acb1a964fa4b997d7d1d2c3736d9a</v>
+      </c>
+      <c r="C137" t="str">
+        <v>giant rifle season surge cost creek client average rhythm among cross raise</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x01F6BceA3df7C5cb56ac5f23803dc55F7308D3Ad</v>
+      </c>
+      <c r="B138" t="str">
+        <v>0x505bc8e8d5c9a7883e2e0523169a6271572a5611dc6513941726e4282f934602</v>
+      </c>
+      <c r="C138" t="str">
+        <v>rapid royal melt net rack region lawsuit inmate crater unfair thought fade</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xC2250035d4FE5a6e14F54f9Ea0aa4AEDc5d3b6af</v>
+      </c>
+      <c r="B139" t="str">
+        <v>0x9ff733b50552f053143ec77495e80217107ddac8023ffdef1c55ab6ee820fbaf</v>
+      </c>
+      <c r="C139" t="str">
+        <v>fresh truck alley cheese humor word admit quick melody exit room small</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x232a95C3560b3f49ecA165f76205107495A523c4</v>
+      </c>
+      <c r="B140" t="str">
+        <v>0xae3c3415291bd0b388a663d62d581b700d8d2e3d8969c28ea70e931872cb2867</v>
+      </c>
+      <c r="C140" t="str">
+        <v>embark chicken cute neither space harsh whisper duck vague cool inmate tank</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x6CB2fE8D5e098D450A6148f8A70Db0e15fC6a7FE</v>
+      </c>
+      <c r="B141" t="str">
+        <v>0x574bd79ebd4bc5290a56e283f9015d42692e9316f6d9dfc1a4ddd7004a265c13</v>
+      </c>
+      <c r="C141" t="str">
+        <v>coin ignore pupil settle urban staff risk cradle mutual torch invest impose</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0xB7EB791e3289472239138947E7cbD82B5329bC67</v>
+      </c>
+      <c r="B142" t="str">
+        <v>0x305d4fe675e16f188613909e44b0516636c05c9b83f50354a16f75015e040114</v>
+      </c>
+      <c r="C142" t="str">
+        <v>evolve news left segment expect gate often exhibit fork ordinary rack visit</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x5535490DF0051564a6D934773D928f97F5b599F0</v>
+      </c>
+      <c r="B143" t="str">
+        <v>0xb3c30b70902f3e62f41144bb36e3c7cfbcfb5c47a63047b4daea34641900705e</v>
+      </c>
+      <c r="C143" t="str">
+        <v>tattoo devote banner plug current cup direct vital brain topic certain service</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x5519067918333aeb70845762b3208bFa562435c2</v>
+      </c>
+      <c r="B144" t="str">
+        <v>0xc33b39654dfd32c3010c7565327191c126a856388126806512228d076be50cd9</v>
+      </c>
+      <c r="C144" t="str">
+        <v>sign fold moon notable ready kangaroo twenty reveal conduct divorce breeze trial</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x8A5DDbe9A52a3F1960454117e93F15493F786d24</v>
+      </c>
+      <c r="B145" t="str">
+        <v>0x71c10da025263d0364875b22d1cedc279785740468b572f4168129d79505de72</v>
+      </c>
+      <c r="C145" t="str">
+        <v>coil sustain circle rapid cherry book avoid appear gun annual size chunk</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x9b0cDaB77236764045c6a91C9c01Bb69f32204EF</v>
+      </c>
+      <c r="B146" t="str">
+        <v>0xeb4151e0dad6dc8ff80a7aa5f34869195af0af0cb71dfc5790e4470b0505468a</v>
+      </c>
+      <c r="C146" t="str">
+        <v>dutch wheat culture proud split omit frozen forward forget material enrich rude</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x03E15F6F0d49df5CbF947BB1B0050acE97cA88bd</v>
+      </c>
+      <c r="B147" t="str">
+        <v>0x2166404d6904c134dc0f729fb1797bbacbdc11e20943a6b5bc8bfa3f27f719c0</v>
+      </c>
+      <c r="C147" t="str">
+        <v>broom female rule board month there adjust neither sail music inmate sun</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xf0aD2C3c9Ac2F8a652D0Fb67B695BF06ef0DC713</v>
+      </c>
+      <c r="B148" t="str">
+        <v>0x438c944984adeb9f56d0a5dbf2113d636927916523fe4fc439bac5b057596652</v>
+      </c>
+      <c r="C148" t="str">
+        <v>rich crack burden egg essay gauge capital resemble pony emotion rug transfer</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x4e7966848ded8f7ad25Bb2B22d37a560EB6Bce35</v>
+      </c>
+      <c r="B149" t="str">
+        <v>0x06f8f3591641863c3ad30568c96b712255f6c6cf44813e4a70c1a256b337fbca</v>
+      </c>
+      <c r="C149" t="str">
+        <v>park page heavy negative cancel damage drastic dog chief measure upset rival</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0x909e2a6847fb28053a348Eceb00F22Beb57Fca2F</v>
+      </c>
+      <c r="B150" t="str">
+        <v>0xb412487e707ef87d5e01eee07809d566ee757fc24222c853dc293e1c5415407d</v>
+      </c>
+      <c r="C150" t="str">
+        <v>two hip choice negative adult work chest title unique whisper edge neutral</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xe5F6cCA6741D4134f3822aca2A8e5d76A092322D</v>
+      </c>
+      <c r="B151" t="str">
+        <v>0x0958b10fcc8ca76ec2af3b89b7e11c46bb96fd24d9df7c3f116005d6eaf99260</v>
+      </c>
+      <c r="C151" t="str">
+        <v>toss smoke mango ridge nephew cave biology artist vague accuse day toy</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x42CAC1BfE5B951a0DF4e66C01D9319797B62aCDA</v>
+      </c>
+      <c r="B152" t="str">
+        <v>0x9b0401bf2f687bfc5545f7ba9a26600e7f6048f62280a5fe28670f6524b98b28</v>
+      </c>
+      <c r="C152" t="str">
+        <v>garment oven lady impose tomorrow memory receive exit mercy core catalog melt</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x9865954B7ab289437eb1f56819A14cC12D61d5b6</v>
+      </c>
+      <c r="B153" t="str">
+        <v>0x7f5ceba979c068f8de7db33767f2be0f9ef7f57f19ce0ada0a7b3f65fdc929e7</v>
+      </c>
+      <c r="C153" t="str">
+        <v>year guide skull jungle debris oak unhappy blur price club tiny acoustic</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0xDE41189CF4628D3d9b9D7631954c7eeECE392680</v>
+      </c>
+      <c r="B154" t="str">
+        <v>0xdc1db5c34bbe22af5003bd490fb8c76d20a4b1ad2230698fb424b7c391f3e48b</v>
+      </c>
+      <c r="C154" t="str">
+        <v>six little mechanic more lemon valley shaft blossom scatter creek can measure</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0x3245a0B4dA29F2f4aA50a05Cbe2D29Dd9Af44bE4</v>
+      </c>
+      <c r="B155" t="str">
+        <v>0x2c4f9e68c980714a5e3e861bd0cb4844716a5dc89bab3e7c35ce3f96a3b71ccd</v>
+      </c>
+      <c r="C155" t="str">
+        <v>sister display attitude segment energy climb large solid seminar case rough leave</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x1c64DeCEDe9552EbfAcEB753c16CB58d007F04c7</v>
+      </c>
+      <c r="B156" t="str">
+        <v>0x0a451f1a4e03fe29a7863bd642375135c2f70f4ac9a8e1ce20dd4be0497df372</v>
+      </c>
+      <c r="C156" t="str">
+        <v>nature strong limit glare symbol champion crater refuse devote fish adapt bean</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xCA02cFfc52627369D9239592d0F0Bc376c9769A4</v>
+      </c>
+      <c r="B157" t="str">
+        <v>0xfc99213a2e7386097a1b685ffb6010281d07e6e22d40e48ca438d72a6be1833e</v>
+      </c>
+      <c r="C157" t="str">
+        <v>hammer two october morning mean black someone risk dice dream stereo estate</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x8cc1607b956580c68FD7a9985246cA45c3683081</v>
+      </c>
+      <c r="B158" t="str">
+        <v>0x6dc033770ce5e30a8375990f49657153bb606ef16c034fb81f57b393486f20f7</v>
+      </c>
+      <c r="C158" t="str">
+        <v>banana link drip federal library source grab eyebrow shine observe filter swarm</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xb73CAdd8CdC546893e76af56B7a7988fA8b0A0C4</v>
+      </c>
+      <c r="B159" t="str">
+        <v>0xc3d86663f4fdeb3ae5b35bcf6729e019864a834d34985f48d25b9580e9ddcd51</v>
+      </c>
+      <c r="C159" t="str">
+        <v>shoe merry slow swamp mansion sample soldier lady bleak animal lady arrange</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x618deCf513734512a379DD4D1778828738D915dA</v>
+      </c>
+      <c r="B160" t="str">
+        <v>0xc512a4c718a7b2c0514a508655f0ef0a0540f4d48f3d4d8fd77ba48840af6c7c</v>
+      </c>
+      <c r="C160" t="str">
+        <v>grace eye vapor planet crew stand unable enhance fox pilot time bulk</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x2De401D946E91b69Fc92eF0849234dC607865160</v>
+      </c>
+      <c r="B161" t="str">
+        <v>0xb7429155b50b900ae03e5890179eafa494488307e2443cc1be3238e03b0b4550</v>
+      </c>
+      <c r="C161" t="str">
+        <v>sight fan hidden damp lucky tuition file sick enable helmet mean tattoo</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x474AD4F84532503E4B6a063222C0F74e35e6C248</v>
+      </c>
+      <c r="B162" t="str">
+        <v>0xa79fa5ee337722076a4b70fe4c7120d41a0bb20813d6dea110ee080164cf0774</v>
+      </c>
+      <c r="C162" t="str">
+        <v>tobacco exit moon pluck furnace equip security enter box salute about maple</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0xc3eA274b0034eA7cc447219980Eb4b0461942764</v>
+      </c>
+      <c r="B163" t="str">
+        <v>0x838e7f919207c3342e822cff4602092bdaa14a56eeea3f6cc7cecce7cda5915c</v>
+      </c>
+      <c r="C163" t="str">
+        <v>monster interest empty hood document heavy unfold table quit note monitor sadness</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x52d5441B44971690631c39DB865418B9d5Cc7504</v>
+      </c>
+      <c r="B164" t="str">
+        <v>0xebbbb469f5d0ee077e19987e26e2ca8b154b70d022f35cd71f91ec9b8ad88fdc</v>
+      </c>
+      <c r="C164" t="str">
+        <v>run real saddle stool laundry cousin trick error shrimp stage picnic cash</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0xB509762E25ffcf118ABFf9addCaa1B72942F85B4</v>
+      </c>
+      <c r="B165" t="str">
+        <v>0x3023e90869dab7837cea9a07824ba83bfa47075ecfed2cce8c93924bfa2c4367</v>
+      </c>
+      <c r="C165" t="str">
+        <v>floor farm reform affair stage frozen blast slam glory solution desk scrub</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x45649189F5746a2c0180345aF2f119B64F3263c3</v>
+      </c>
+      <c r="B166" t="str">
+        <v>0x40884e9c2311f520b32768cee24aea548314592fcd2b32ad6279273f3f18951e</v>
+      </c>
+      <c r="C166" t="str">
+        <v>legal wreck pact distance material kit connect market summer adult present soft</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0xDf0796d9956Dc8DC54dBAdD3f16320b963c12aBb</v>
+      </c>
+      <c r="B167" t="str">
+        <v>0xabf0d2f7f61363e49baed8037aab932d9a589b8f45c0581f9304a3ef2be5c58b</v>
+      </c>
+      <c r="C167" t="str">
+        <v>insect chalk rookie noble struggle business response gather anger cradle control gorilla</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x3D50eA6F7Fb2B0cfEC2277f50b41465B28276792</v>
+      </c>
+      <c r="B168" t="str">
+        <v>0x84669eba611c9d290d2cd3eca0461e3239f26edbcf3094aa1a8c3da6ae064cc8</v>
+      </c>
+      <c r="C168" t="str">
+        <v>weather company riot nation world grunt legal cup view flock wagon zebra</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x062F0eA447F760EE45F11cE2C6c2E7B2c8490A76</v>
+      </c>
+      <c r="B169" t="str">
+        <v>0x8de1dd2e2b8034158806afcb6f78f305ca382d9717ab7b8d1af2315016ebd60c</v>
+      </c>
+      <c r="C169" t="str">
+        <v>output effort gospel remove give flock quick split broccoli between flash feel</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0x73BC70A11727F9cD065AD2604d90b0ae3e2F2361</v>
+      </c>
+      <c r="B170" t="str">
+        <v>0xcc14feb9d315bc5143aeb29366f077d9cb861ed8baf355740cddc209fca278ce</v>
+      </c>
+      <c r="C170" t="str">
+        <v>hill crash inside cat zero casino broccoli pause slot gadget sibling gap</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x52Bf76493C71Aa6AB9C815F0a745C019Eb46B94C</v>
+      </c>
+      <c r="B171" t="str">
+        <v>0xb9424ea1ebedb82f3a957ae6591f42605a8293fe617ddcf2a44de6ec323ea29f</v>
+      </c>
+      <c r="C171" t="str">
+        <v>canal diamond dynamic cause nuclear famous black ticket accuse garbage boss afford</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x3C12aF579E43b32f5828078a5FB8097cF5708e65</v>
+      </c>
+      <c r="B172" t="str">
+        <v>0x0df75cc1aba05ae887fa52123263232b084103f6ddec17b046548175cda27cb3</v>
+      </c>
+      <c r="C172" t="str">
+        <v>strong injury clinic train swap pave unfold fence version junior odor master</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x6404485eEE53fd792740458BF9B4B97aB1fF20A3</v>
+      </c>
+      <c r="B173" t="str">
+        <v>0x1510c5cb0589762c10d48fd055dc7fc566bf3aeb51605c964f0c0357fdbd5bf5</v>
+      </c>
+      <c r="C173" t="str">
+        <v>warm give pulp stem spatial consider fetch need quantum begin school since</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x024f172Ef9Bb527833013F3809637B328eC05860</v>
+      </c>
+      <c r="B174" t="str">
+        <v>0x2aaa02adbebbc32c9196ebfdeeeb50a1ec9adff92da424f9b1c50c54d135508b</v>
+      </c>
+      <c r="C174" t="str">
+        <v>prison still title whip mobile transfer print you circle maple weather repeat</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xb3666DBD094085d02A4b1e1f8f9e41e776E3E19D</v>
+      </c>
+      <c r="B175" t="str">
+        <v>0xde1e64f07a4f6e9a78364f42a1da80b4dac20fe7bbe0dd0d867185e1c26ba09c</v>
+      </c>
+      <c r="C175" t="str">
+        <v>dutch tortoise oven cotton cinnamon duck dawn fantasy tennis fresh decade fox</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xEA487028481C0A4Ff6Bd821bDeF0C85FBaed753c</v>
+      </c>
+      <c r="B176" t="str">
+        <v>0xaea1a217d545aa8f9af74d2d976e06fe3c86b43729c1e2f0daf9f40a4144b70b</v>
+      </c>
+      <c r="C176" t="str">
+        <v>physical demand method rent inspire fatigue eagle soul alpha urge rhythm glove</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x9EB7E3816EdEA994390526c741EcF26A6e27A143</v>
+      </c>
+      <c r="B177" t="str">
+        <v>0xeb9ff17f449cc1e347e4dbe40b771c96a8a704cfb30d7140b97b0769ec0388da</v>
+      </c>
+      <c r="C177" t="str">
+        <v>mountain arrange pumpkin sight once defy primary sniff hard spirit spike empty</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0xB015059971F670C7D6bfB7B97E73165eDca017b5</v>
+      </c>
+      <c r="B178" t="str">
+        <v>0xaeb9609d3fcf18b6706f9481480706ab9b5ccb2805e790f3120c30e1d2124d56</v>
+      </c>
+      <c r="C178" t="str">
+        <v>worry meat wise danger silly minimum piano globe various march phone mother</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x76C242A5f910341374f56918ba2afD5Db002375d</v>
+      </c>
+      <c r="B179" t="str">
+        <v>0x98bd52634807340db6215075acc6c84b6b0c94fa033288e86b7656a8433f57db</v>
+      </c>
+      <c r="C179" t="str">
+        <v>mass december primary pattern secret ring dad position breeze document west knock</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xa94f51fe24705375206f4E5E8d120B5274fCDF17</v>
+      </c>
+      <c r="B180" t="str">
+        <v>0x7d6f8742a3a8b1f1c2888d0fcf9f6035f999e2388c9711f7efa827b1d7ac78ac</v>
+      </c>
+      <c r="C180" t="str">
+        <v>situate sock lunch wealth always place celery humble elegant under still knock</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x8c63b7B4e9822571AE0A1e32F2167931a1c0C75e</v>
+      </c>
+      <c r="B181" t="str">
+        <v>0x561dbd821a0371f195d9f03ab244da24f6f0c27801c6253ca0a9df6a677a136a</v>
+      </c>
+      <c r="C181" t="str">
+        <v>track tonight outdoor damp travel hospital main pretty law alarm enough memory</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x70CA2a6a8fA93cF40C98972B58E235b17AD0e445</v>
+      </c>
+      <c r="B182" t="str">
+        <v>0x4ebe66a965b3907ac3df442b157a6e92b81cb46b406e846cecb490c05f30307a</v>
+      </c>
+      <c r="C182" t="str">
+        <v>wedding slice dress stem curve gauge inhale glimpse brain camera yellow tennis</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x7b2622bAF77b93bB9bED770bE75f0cf24cC3380B</v>
+      </c>
+      <c r="B183" t="str">
+        <v>0x300cb562da6561cdd0e79d2a6896a00ac74845f6e189ee99e65eb141c2ef105f</v>
+      </c>
+      <c r="C183" t="str">
+        <v>trumpet armor sun chest sponsor alter apart virtual possible renew light senior</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x5DcC41D4c84258FC88548B9490bf8B3D7FB870B8</v>
+      </c>
+      <c r="B184" t="str">
+        <v>0x258a242f3ea20d5eaeb9a617c68a6939fb28c6a87fe61c5f7144ee5b1f401c2b</v>
+      </c>
+      <c r="C184" t="str">
+        <v>pill stumble tumble erase attack desert energy cousin brisk elbow caution race</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0x0AC4EeFf52C8c410394927fBAfe7c32DFCE07c4d</v>
+      </c>
+      <c r="B185" t="str">
+        <v>0x0b09c7fe8ac11f5ac9bd714b6d4b913f50472e9504f63e86b79dbbec3893e79a</v>
+      </c>
+      <c r="C185" t="str">
+        <v>invite legend ripple certain laundry badge crunch face gun fringe hedgehog manage</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0x6598498e0f5c5d565849a1aCD76FCd6F832edF77</v>
+      </c>
+      <c r="B186" t="str">
+        <v>0xe29e493b278203029b05efc03e5766f68dbecc03f4df0beb53ecd1c4195a2dc6</v>
+      </c>
+      <c r="C186" t="str">
+        <v>tired blast cause hub another degree seminar myth start unaware cabbage crane</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0xB1883Fd4d791321Dba27494CD59f93fCb8E269EB</v>
+      </c>
+      <c r="B187" t="str">
+        <v>0x9d8479a4a7553c96857f030768b1c6352a259bc9d2cb29eaeb00797390a6ac84</v>
+      </c>
+      <c r="C187" t="str">
+        <v>swap tuna crew text police network second weapon island arrange observe family</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x8094F822B74b3a8Dd21CfCffcBEf829Dc77179F1</v>
+      </c>
+      <c r="B188" t="str">
+        <v>0x31345fe7dbc723ffb7e3559d347eac751aba6f0c5fb0b59daed896cd6d6e76d6</v>
+      </c>
+      <c r="C188" t="str">
+        <v>syrup soon cherry brother cereal smoke close matter syrup ride spatial blame</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0xFE0ec37dFe6C964Dd111af0fB49AbFB439b64759</v>
+      </c>
+      <c r="B189" t="str">
+        <v>0xbde51bb5b59baf97ed62605ce33240a9c4df3b1131ea6f20379ae72e6df43862</v>
+      </c>
+      <c r="C189" t="str">
+        <v>eager boy tilt vault canal general asthma uniform exhaust mad display salt</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x2224EAE6371c99710f173A55893be397C8124236</v>
+      </c>
+      <c r="B190" t="str">
+        <v>0x36941b11c0df049d5fb29d7e9c7a69dbf8a9968f3b844d904a4248d3bb2f0dbe</v>
+      </c>
+      <c r="C190" t="str">
+        <v>viable immune wheat title process climb senior mail music retreat snap annual</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0xaFd306a926852e38D710b2533626fd841905aC37</v>
+      </c>
+      <c r="B191" t="str">
+        <v>0xe51d66ad287c306b0088bbfd08f62d41a32498f3d638e410f44ce01392b8a9fc</v>
+      </c>
+      <c r="C191" t="str">
+        <v>faith suffer drink globe olympic link replace cruise basket claw loan protect</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x2d30def761CD18d477620607C2f026ac7E54A050</v>
+      </c>
+      <c r="B192" t="str">
+        <v>0xd41eeff46391c70857e201fc1f48bdc10955703b66cf60f68c12779ab1b71a78</v>
+      </c>
+      <c r="C192" t="str">
+        <v>shock earth south fire food language jacket love cabbage work enjoy effort</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0xf7E231108CE5C0826125Bc66C87cf4302eb65692</v>
+      </c>
+      <c r="B193" t="str">
+        <v>0x5fd4220190e2bd2f2c949b9835c7831935cf41d87b17036e881f6b552226931b</v>
+      </c>
+      <c r="C193" t="str">
+        <v>vendor cinnamon warrior farm stool tongue height once horror bulb sphere tourist</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x5ef05d109eb199F751354b751Bb62B9d33fD8881</v>
+      </c>
+      <c r="B194" t="str">
+        <v>0xa6b4c79cb077c4522eb527e9b148993caf76f0a9e2c026f5d2a3c06ac91c72e2</v>
+      </c>
+      <c r="C194" t="str">
+        <v>common enough country pitch custom furnace whisper raccoon dutch syrup day grow</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0xC09B0702E74Ef6f16765d47DaB75f56cf9481A91</v>
+      </c>
+      <c r="B195" t="str">
+        <v>0xc283f8940c797359e0c996764313770a1da9aa1cabd01ca0b0b4f86c3bd95265</v>
+      </c>
+      <c r="C195" t="str">
+        <v>all congress supreme reflect enforce person snack diagram benefit sentence promote color</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0x3Ad11935C6bca83c4A282D188A3621f853f3553F</v>
+      </c>
+      <c r="B196" t="str">
+        <v>0xed491c1c73ac05b0909d4bdcb8f2c50a5d510f411d710c8eb0a28ec5e56dd7bb</v>
+      </c>
+      <c r="C196" t="str">
+        <v>punch region letter fence skull slush outside virus phone toss knife slow</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0xD844C40031D0004fEF4Fc2d731ED298a07DB6704</v>
+      </c>
+      <c r="B197" t="str">
+        <v>0xe6d93b8f8bff1a72a4efcdf4be76b28b1d92310c702d7e0b6a12d25fc4cc91ff</v>
+      </c>
+      <c r="C197" t="str">
+        <v>unable flash snake coin skill talk doctor spring help eight tiger help</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0xd3bB742f96075a70D2E2050b38B88ea166f5E005</v>
+      </c>
+      <c r="B198" t="str">
+        <v>0x19cfce0c8549413196a0c07f32f637616e3687373a0ca8c9457f17354612c39e</v>
+      </c>
+      <c r="C198" t="str">
+        <v>guilt choice citizen kid excess diamond fabric paper dignity gather fossil gauge</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xFdA61e2f770cB8BbED8E0b8735fFB17C8773b273</v>
+      </c>
+      <c r="B199" t="str">
+        <v>0x56184e0087e927dfdb3fc791ad1253c39e88bd4d7221fcc3438ea2f61d93e8b2</v>
+      </c>
+      <c r="C199" t="str">
+        <v>cage battle that mountain village circle horror such captain assume silk faculty</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xeeEE4B04e4C7791edD7C10C2D85DC800b28B9dEB</v>
+      </c>
+      <c r="B200" t="str">
+        <v>0xbe673e9d68bf78e17eee863705dd0b733f66db8fd81d301527ab552f704fd60a</v>
+      </c>
+      <c r="C200" t="str">
+        <v>hawk endless chair anger foil abuse crouch off clump tourist number garage</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0x23fDB551db9c3B323B4c7265baD5D27E416644b3</v>
+      </c>
+      <c r="B201" t="str">
+        <v>0x178a5fed152a4fad8ea7e42caac5c902dfe4540fb0aa1a7e460329a13d5f5570</v>
+      </c>
+      <c r="C201" t="str">
+        <v>hurdle skirt daring stem hint reform remember retire weather intact cactus obey</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0x819f776eca0C092B17FB7271eBAC5304eC531232</v>
+      </c>
+      <c r="B202" t="str">
+        <v>0xb9890b2f7d8d1812f3742922743d8fd735296553bff22ad4f7d10a63064d4949</v>
+      </c>
+      <c r="C202" t="str">
+        <v>better knife north wing twin peanut frog energy october floor junk dune</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0x851CA0E84E294909b76Af8c797BFF8A7921E81F5</v>
+      </c>
+      <c r="B203" t="str">
+        <v>0x4ec803797af18d72bcce940ada0736c8f22392a56d816d0699c97a58a224720e</v>
+      </c>
+      <c r="C203" t="str">
+        <v>seven ability old vapor hip visit cover enough dragon shoe swamp ginger</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0x6384A9169bBcfDd80303407CB7018859697A326a</v>
+      </c>
+      <c r="B204" t="str">
+        <v>0x2ce60816790a1dbd63791d9beba46fa65b959e6b56478fafe0438396387a1e52</v>
+      </c>
+      <c r="C204" t="str">
+        <v>weather struggle evil confirm three tobacco quick thrive million captain follow noodle</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x40d362f80ff3aB864C2f1C1E0964EEc6Ed602B09</v>
+      </c>
+      <c r="B205" t="str">
+        <v>0x90d6ee09bd00ad2bacd14d18d652cd8049ec4cc9db813955dc4c8b8e18d4f65e</v>
+      </c>
+      <c r="C205" t="str">
+        <v>blood run tuition divorce fiscal wedding derive month sniff female depart useful</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0xB139ACe54427DC9dBB949c374A2f07B8F54A5F2f</v>
+      </c>
+      <c r="B206" t="str">
+        <v>0xb75914aa2d5e5f24c2b0263d958dd7a7fb07766df40bfa391325cfcf49175a85</v>
+      </c>
+      <c r="C206" t="str">
+        <v>universe nuclear neck use menu seat weather dust found dove layer minor</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xF3678E4672BDB9f1f2b5920B7CeD6cD3767f7c53</v>
+      </c>
+      <c r="B207" t="str">
+        <v>0x2e1cd11f3352161ffe94737bc2694028d08ef7c4d8e4ffb4bc359698dcf210df</v>
+      </c>
+      <c r="C207" t="str">
+        <v>vibrant oil voice staff galaxy fatal portion board swim purse bridge choose</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x8c57d9e7BDE24E8eEaB0f4F6955eb8ff6A3Ffe46</v>
+      </c>
+      <c r="B208" t="str">
+        <v>0xdbb7a73555d1f810572e6154148d2c7a2f69d8cfc6f2e15fde160296a1c5f127</v>
+      </c>
+      <c r="C208" t="str">
+        <v>apology tortoise thought claw force latin code diary ghost victory math jelly</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x4467E8E8e4c3feaF0b452e2512CC49F7C57e1D89</v>
+      </c>
+      <c r="B209" t="str">
+        <v>0x4409b258ced60526051093b5238bbb6fc68660b2752a1035d1a18631d3737a00</v>
+      </c>
+      <c r="C209" t="str">
+        <v>update theory evil punch auction decorate joy pulp crucial wave erase quote</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0x78395f279A2C720625F3984e09602B022Df1B1E9</v>
+      </c>
+      <c r="B210" t="str">
+        <v>0x7335e233a0275474c2cb5a5821eff802f5045e5bf1ab86c93e54e8295b9f41b7</v>
+      </c>
+      <c r="C210" t="str">
+        <v>magic range behind damage judge cherry razor make arm net cliff solar</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x404B21b63719cca5D0F900C5e3F0036adA853610</v>
+      </c>
+      <c r="B211" t="str">
+        <v>0x00965209dbf9d5c94ae3ad6741a473e4bfdc6077a478b8d5e73cd2b40c6d5a29</v>
+      </c>
+      <c r="C211" t="str">
+        <v>spoil replace slam echo miracle faculty suit refuse hollow south dice opinion</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0xa13aE9dCb3bee0e2222D21A8c8F910694F8b90c4</v>
+      </c>
+      <c r="B212" t="str">
+        <v>0x43b318b514b8933ba40be3f5fbab2049ab40101542e98e63b94d1418b7441469</v>
+      </c>
+      <c r="C212" t="str">
+        <v>pluck until desert icon injury nut weapon pull melt vapor skull input</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x70D5e679fbecf7299d3395ce8b298Fd13a66705f</v>
+      </c>
+      <c r="B213" t="str">
+        <v>0x2201c2f8ef74327fdbd37d60e234c91dbcebdb26ac5843b40adfd3ae58f48014</v>
+      </c>
+      <c r="C213" t="str">
+        <v>must combine wire speed tube twelve plate split host curtain income useless</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0x1D38cfFC01e79902064C6Abb91c85f20713Ecfd3</v>
+      </c>
+      <c r="B214" t="str">
+        <v>0x7d2b13e25d76d1dbdefd0da08bbf3674ef9264dc68f8bfb9b505e5c9b0fafcf6</v>
+      </c>
+      <c r="C214" t="str">
+        <v>scissors ski plate close alert treat trial spread turtle silly ring best</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x44ffc3f1c5F98Df455Aea6eC4eF7148A4d14a1De</v>
+      </c>
+      <c r="B215" t="str">
+        <v>0x29f3a46ae606fcd11123b699c9a771f9e1197e5317e1e07316ec94cd1a29f115</v>
+      </c>
+      <c r="C215" t="str">
+        <v>oil pen grocery desk move neglect fury shed bright doctor sauce tortoise</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0xb1e2022c6DD2c97a9645D919D8f9D6F9D0901Aa7</v>
+      </c>
+      <c r="B216" t="str">
+        <v>0xe9b1757f225f11aac31d3563ce2ed3cd69799fbeb72b804eba84154d00625abb</v>
+      </c>
+      <c r="C216" t="str">
+        <v>audit spatial goddess cactus try conduct birth uncover pear blind squeeze sunny</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x2Bd465F9B2E96c117161c99FD04ce799cB6A01ce</v>
+      </c>
+      <c r="B217" t="str">
+        <v>0x169267974e601d34e6b9e23d4de77c456ec0ce6d526abb39a5f8feb26f5c594d</v>
+      </c>
+      <c r="C217" t="str">
+        <v>device category virtual drift manual smile ecology narrow bonus behind lunch debate</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x6969d93eF0226b3a12775c03d3df99617C8b2edC</v>
+      </c>
+      <c r="B218" t="str">
+        <v>0xf2ceb0dbbcbcc25a24bca6c3e4b79c25140c72a28b7cf3c53b5ac77b3028213e</v>
+      </c>
+      <c r="C218" t="str">
+        <v>width immune maze asthma bundle royal throw right equal rich tongue photo</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0x892da3Fa5310756E1cDDa95888a2Ad27E27b2e4d</v>
+      </c>
+      <c r="B219" t="str">
+        <v>0x9452070e8da42056b6f6557cf12d139d4036446377ddbd0e9daf2797f18ecee5</v>
+      </c>
+      <c r="C219" t="str">
+        <v>call solid manual hidden rack shrimp popular renew oval judge damage foil</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0xB27F9Eb75130D4386f5418f8d1D5b399A9C30D40</v>
+      </c>
+      <c r="B220" t="str">
+        <v>0x4a691226e5f6f4fac6bc02796de2f2ed68108f310fb32593a2313e27bf74ca90</v>
+      </c>
+      <c r="C220" t="str">
+        <v>when bind vast charge label frog engine name chat innocent acquire bag</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x2A429d0fDcCD9b03964D42e9543D5D7C2da6c3fB</v>
+      </c>
+      <c r="B221" t="str">
+        <v>0xba249d4c13518362e6e6d82d4b60de9120c620f0ae495f8de1d9a73477239fc8</v>
+      </c>
+      <c r="C221" t="str">
+        <v>menu end spray december satoshi adjust elevator high brisk doll page monitor</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x825dD90cfd727f8BFA7924f217432F1974b030Bd</v>
+      </c>
+      <c r="B222" t="str">
+        <v>0xfed4fcd73440fa0822d60ac6166355ab60ea3cdadc032b1c77dcc04e0199a636</v>
+      </c>
+      <c r="C222" t="str">
+        <v>gentle sing duty outside scale imitate wall april junior fiscal valley palace</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0xAAFC3F001940498B44797D872F49091Fea096877</v>
+      </c>
+      <c r="B223" t="str">
+        <v>0xdfd53f948271348ca2571ce7270b294dd33576f0669a6556ae18b2f047874da2</v>
+      </c>
+      <c r="C223" t="str">
+        <v>rotate increase love dwarf mouse bundle fire glad together river keen violin</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x5e8201f2184eff55CdD0D6f7B3F388D408AEA7f6</v>
+      </c>
+      <c r="B224" t="str">
+        <v>0xf340a8778397b342b89abd84b0c0a9ec555fc86e8f55ec25b8903e7992010402</v>
+      </c>
+      <c r="C224" t="str">
+        <v>focus stick unfair tissue speak roast camera that involve gain icon lady</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0x0EeB85f5efAA767D72dB067a7A63654Ef013990D</v>
+      </c>
+      <c r="B225" t="str">
+        <v>0x8bfa3e21027e6aff5b1a9fcfcd8285c3899606b0f159b0e30d70d14341d21cc7</v>
+      </c>
+      <c r="C225" t="str">
+        <v>course left oblige cross ask glue solution fiber merit hybrid lesson found</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0xA01bBc0B02aC788D3a3D1F250F14016CB5c95C81</v>
+      </c>
+      <c r="B226" t="str">
+        <v>0x9d30e80476e98929f4f957df25347420bc1b8100a4418b1fbacc3e9c52c03be9</v>
+      </c>
+      <c r="C226" t="str">
+        <v>kiwi high clarify armed error uphold inmate tomato word better forest strategy</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0xD943386ca86c52389076C320bA08ffa84f848433</v>
+      </c>
+      <c r="B227" t="str">
+        <v>0x20cf8c2c47e881f4e04a55fc2abd8e48d7cb4658133ac295cb74b6b089ab9592</v>
+      </c>
+      <c r="C227" t="str">
+        <v>ankle accident gun absent around make country project invite hazard math fence</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0xAd9100d7f7e472f5fA43dA4dF4DA48FA3627103D</v>
+      </c>
+      <c r="B228" t="str">
+        <v>0xf4c1b5189168a1c063c270038cd31ba781cb0b1b25403ae3c3eacd81ccb75df0</v>
+      </c>
+      <c r="C228" t="str">
+        <v>obtain frost bread evidence start tourist border issue brisk tumble empower blur</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0x72bAaffb6a42232Daff70B519259f1aF1e3504Cb</v>
+      </c>
+      <c r="B229" t="str">
+        <v>0x4740c9e554e86a5d4f0464ea5aa5d7aae58389e5b0162b1e5589ec383403f351</v>
+      </c>
+      <c r="C229" t="str">
+        <v>drip license stand marine social earn team swarm letter document wheat liar</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0x5D383C118bb5aefcAB0F06D65442f4B074F18a91</v>
+      </c>
+      <c r="B230" t="str">
+        <v>0xebbe11c827d03816f7ace86be8e77973120fc471b011f0b243db4bb742056f60</v>
+      </c>
+      <c r="C230" t="str">
+        <v>erode father lake ceiling arrow kitchen radio luxury cake sing pet permit</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>0x4e35Ed2F075c7d672BB9428Bc99e526212DBfd3f</v>
+      </c>
+      <c r="B231" t="str">
+        <v>0x117fb29ee17c8b2f130371bd5b6859604a05b8cf60a8a37691829be9e2234687</v>
+      </c>
+      <c r="C231" t="str">
+        <v>there fringe laptop feel office craft envelope edit vacuum glare remind avoid</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>0xdd0D0fda3f141348a1fBd4688Dab7D95c3644E01</v>
+      </c>
+      <c r="B232" t="str">
+        <v>0x4b41f8b4a533a52426956cc9640e013bee8104c739d922521f0d2631aad2d123</v>
+      </c>
+      <c r="C232" t="str">
+        <v>vivid steel will pipe canyon transfer skill gospel pride route palm floor</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>0x2EFC0e1Dbc579da5f8BA7c5145d67d0dd5fEfe4E</v>
+      </c>
+      <c r="B233" t="str">
+        <v>0x1b63ce3b95844bcaaf7bbee0e4e35a2caef810cde1fb29d8f6bb8e2b2d5711d6</v>
+      </c>
+      <c r="C233" t="str">
+        <v>material album call infant head jazz inmate response attack cloud diamond shield</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>0x2a79B708Aa84019e757b23ee02558Db1E29658d5</v>
+      </c>
+      <c r="B234" t="str">
+        <v>0x6aa47138c82076960328c624b6e45a8858690773cfbe9a5c066613e90644c9b4</v>
+      </c>
+      <c r="C234" t="str">
+        <v>fold gorilla bunker cement moon coconut fatigue enact clown knife track chaos</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>0x0301C086c5A4d8d5bf86C0F5Da812D9081F76409</v>
+      </c>
+      <c r="B235" t="str">
+        <v>0x02aeee9c335f9eb8d31c7b121672294041316297a6f2181882205e6bd3ad1656</v>
+      </c>
+      <c r="C235" t="str">
+        <v>midnight detect increase charge ordinary bench fade tiny ride vessel name organ</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>0x0b09f895349961edd8Fb4e14e6Aa561C75F86707</v>
+      </c>
+      <c r="B236" t="str">
+        <v>0xfdeb3211203ddbee9f165d773e14002a29c61ffc589b0e4f561ed61c1fbcb2cf</v>
+      </c>
+      <c r="C236" t="str">
+        <v>drink dove flash smooth baby loud autumn census narrow deputy syrup cabbage</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>0xDd2bF6347171fD20740025E4c328362bCB1b66a8</v>
+      </c>
+      <c r="B237" t="str">
+        <v>0x3bfe18bba32c05e65b5828df309e86915f8dc6ced23725456048fd363eb070fa</v>
+      </c>
+      <c r="C237" t="str">
+        <v>hockey devote remove rib roast month water twenty crash can enable circle</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>0x1F9D95e852dcc7C85A0b7E87996cdCF4e0389BeA</v>
+      </c>
+      <c r="B238" t="str">
+        <v>0xb0268ceb3a462f58bc3265dcdc37a39a5fe1ce19d77d5ed66494f1662ffe7c7f</v>
+      </c>
+      <c r="C238" t="str">
+        <v>ankle cool blouse music surge resemble armed tiger orbit board neutral kiwi</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>0x86feF8E14642E2Ce85dc5D26ad252dC5bfFBaCA0</v>
+      </c>
+      <c r="B239" t="str">
+        <v>0xd14dcd667d96065d50dbf6fc3e8090fe284693c45e44c983abab2672f0f32c50</v>
+      </c>
+      <c r="C239" t="str">
+        <v>theory travel fault chief wear priority scene trim deer share morning tourist</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>0x2A36dD3452a2d664A9ee1Dfef8D553c60f36eB4e</v>
+      </c>
+      <c r="B240" t="str">
+        <v>0x52c7e8803a51fbde44953a0475a4f7a779004bd7702f4d1efa38fe2e5fd5c1f4</v>
+      </c>
+      <c r="C240" t="str">
+        <v>web conduct assume unfold sell cactus apology morning chapter asthma cruel shed</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>0x5Aaf2b83F2C27f5EafBc84a19EbF3F49DD70E32F</v>
+      </c>
+      <c r="B241" t="str">
+        <v>0xe460537db7cd7a1a144bb2480a60d96082a85ba9f02c4349515a48f8c09590ce</v>
+      </c>
+      <c r="C241" t="str">
+        <v>rocket mushroom merge cereal wall spike ceiling fluid pulse public bacon payment</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>0x603f2166b14bf13681ebD27cf31F5dF96101218d</v>
+      </c>
+      <c r="B242" t="str">
+        <v>0xb62a5de6731e30ad2a4fd42b4531ff3ed6addf8d2d1a5e88d41a1fa531d4fb52</v>
+      </c>
+      <c r="C242" t="str">
+        <v>deny path blame tray absent system now name aim napkin silent achieve</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>0x53406d7406e83974563F7EB66670bFD1ef0C17a7</v>
+      </c>
+      <c r="B243" t="str">
+        <v>0x551a1325bbbdb7a4aac568ed7fac8d3c08ba408f12154c1474dc1b5cdf9885d3</v>
+      </c>
+      <c r="C243" t="str">
+        <v>clay give quality eyebrow rapid exhaust lawsuit gossip crucial defy piano labor</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>0x2d9800C8C04115372E663e9bC8F60af5d45f8a7e</v>
+      </c>
+      <c r="B244" t="str">
+        <v>0x37e83216dd773fd2f917536d9fd81f13d77513626fabb9a8d225ae1491b966b5</v>
+      </c>
+      <c r="C244" t="str">
+        <v>vendor famous account protect burst faculty shoot skate clap coral exchange cannon</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>0x73Cd25E46E6986799cC7F30a48EfF01585C27ba7</v>
+      </c>
+      <c r="B245" t="str">
+        <v>0xdd608fd14a4d6d869b14ddb32fd34d18ed052b86f1dfe27e295fa8e6212f959f</v>
+      </c>
+      <c r="C245" t="str">
+        <v>few bind stone crystal coyote luxury donate belt sausage trigger utility decide</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>0xE5B7A0a2A978285A9ECC71eb8B1c20e318ED3922</v>
+      </c>
+      <c r="B246" t="str">
+        <v>0xd1e2da0c7617f331792850fb7c46f7e88eaf567fc687ff4893dde43eca9c0c3a</v>
+      </c>
+      <c r="C246" t="str">
+        <v>vintage daring any chalk kitchen insane donor dumb sun matrix shaft scheme</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>0xFEf414c69A2eB5C7d0Ef7de5B76a7F30D9442B06</v>
+      </c>
+      <c r="B247" t="str">
+        <v>0xbdc4aa73b94a339958ed43fb03256a082159905d31fcdc35468cf823f2a2f4c8</v>
+      </c>
+      <c r="C247" t="str">
+        <v>oak cave correct limb hover disorder combine jaguar theme orbit cigar wall</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>0x137cDcd296f843423630d9219C0d4A4024800525</v>
+      </c>
+      <c r="B248" t="str">
+        <v>0xe346d5e2a98afaade1d4f41ed82d0a242c4873f3541ad8aea1317bd3b728b734</v>
+      </c>
+      <c r="C248" t="str">
+        <v>drop orchard dance viable include useless asset lamp economy begin exact lumber</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>0xfe62b07D0Ca1CCe236f0885e64078AFDC7cd30Fd</v>
+      </c>
+      <c r="B249" t="str">
+        <v>0x20be6e93842f2be67f14aaac461e74bdacb29e1c24ea20d81ffaccd58d0fa71c</v>
+      </c>
+      <c r="C249" t="str">
+        <v>carry celery chief auction between draft season effort shallow axis wonder meat</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>0xa9270431F5813a02cdE56bF35a4D1af619Ffe702</v>
+      </c>
+      <c r="B250" t="str">
+        <v>0x84b3443e10476188b40c36e61032a902cb3d68f21f4d0137c2812b67d34302ff</v>
+      </c>
+      <c r="C250" t="str">
+        <v>phone prefer place album sure twin color follow urban deposit cheese tortoise</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>0x286a3E0C3CfEE96E4D1309D549Ec4D1B7E6f3727</v>
+      </c>
+      <c r="B251" t="str">
+        <v>0x80fe467a4c6933d2205f9f0001d1066a5c21ffad9433616e0739f797a465503c</v>
+      </c>
+      <c r="C251" t="str">
+        <v>paper cage metal pumpkin parrot pony work castle giant truth ill traffic</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C251"/>
   </ignoredErrors>
 </worksheet>
 </file>